--- a/Excel-files/EthanolMarketsand-Ethanol.xlsx
+++ b/Excel-files/EthanolMarketsand-Ethanol.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mallorym\Documents\PriceAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qzhou26\Desktop\2.8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="DDGs" sheetId="1" r:id="rId1"/>
     <sheet name="Ethanol" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="68">
   <si>
     <t>Distillers dried grains, Central IL</t>
   </si>
@@ -325,9 +325,6 @@
     <t>Feed Grain Database</t>
   </si>
   <si>
-    <t>3.35-3.95</t>
-  </si>
-  <si>
     <t>Table 9--Corn and sorghum: Average prices received by farmers, United States</t>
   </si>
   <si>
@@ -373,11 +370,17 @@
   <si>
     <t>Iowa Ethanol Plant FOB, ISU Economic Model</t>
   </si>
+  <si>
+    <t>2016/17</t>
+  </si>
+  <si>
+    <t>2.95-3.55</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-10409]#,##0.00;\-#,##0.00"/>
@@ -467,7 +470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
@@ -544,6 +547,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
@@ -574,7 +582,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -618,6 +626,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -668,7 +677,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>DDGs!$C$23</c:f>
+              <c:f>DDGs!$C$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -691,7 +700,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>DDGs!$B$24:$B$218</c:f>
+              <c:f>DDGs!$B$25:$B$219</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="195"/>
@@ -1285,10 +1294,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>DDGs!$C$24:$C$218</c:f>
+              <c:f>DDGs!$C$25:$C$218</c:f>
               <c:numCache>
                 <c:formatCode>[$-10409]#,##0.00;\-#,##0.00</c:formatCode>
-                <c:ptCount val="195"/>
+                <c:ptCount val="194"/>
                 <c:pt idx="0">
                   <c:v>73.3</c:v>
                 </c:pt>
@@ -1837,18 +1846,56 @@
                 </c:pt>
                 <c:pt idx="182">
                   <c:v>123.13</c:v>
+                </c:pt>
+                <c:pt idx="183" formatCode="General">
+                  <c:v>132.63</c:v>
+                </c:pt>
+                <c:pt idx="184" formatCode="General">
+                  <c:v>133.13</c:v>
+                </c:pt>
+                <c:pt idx="185" formatCode="General">
+                  <c:v>132.5</c:v>
+                </c:pt>
+                <c:pt idx="186" formatCode="General">
+                  <c:v>136.625</c:v>
+                </c:pt>
+                <c:pt idx="187" formatCode="General">
+                  <c:v>134.5</c:v>
+                </c:pt>
+                <c:pt idx="188" formatCode="General">
+                  <c:v>122.38</c:v>
+                </c:pt>
+                <c:pt idx="189" formatCode="General">
+                  <c:v>141.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="190" formatCode="General">
+                  <c:v>170.5</c:v>
+                </c:pt>
+                <c:pt idx="191" formatCode="General">
+                  <c:v>149.38</c:v>
+                </c:pt>
+                <c:pt idx="192" formatCode="General">
+                  <c:v>130.9</c:v>
+                </c:pt>
+                <c:pt idx="193" formatCode="General">
+                  <c:v>127.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE0A-44C4-ADC9-B88828D20B60}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>DDGs!$E$23</c:f>
+              <c:f>DDGs!$E$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1871,7 +1918,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>DDGs!$B$24:$B$218</c:f>
+              <c:f>DDGs!$B$25:$B$219</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="195"/>
@@ -2465,10 +2512,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>DDGs!$E$24:$E$205</c:f>
+              <c:f>DDGs!$E$25:$E$217</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="182"/>
+                <c:ptCount val="193"/>
                 <c:pt idx="0">
                   <c:v>152</c:v>
                 </c:pt>
@@ -3014,11 +3061,49 @@
                 </c:pt>
                 <c:pt idx="181">
                   <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DE0A-44C4-ADC9-B88828D20B60}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3214,7 +3299,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3228,6 +3313,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3268,7 +3354,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>DDGs!$F$23</c:f>
+              <c:f>DDGs!$F$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3291,7 +3377,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>DDGs!$B$24:$B$218</c:f>
+              <c:f>DDGs!$B$25:$B$219</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="195"/>
@@ -3885,10 +3971,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>DDGs!$F$24:$F$205</c:f>
+              <c:f>DDGs!$F$25:$F$217</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="182"/>
+                <c:ptCount val="193"/>
                 <c:pt idx="0">
                   <c:v>0.48223684210526313</c:v>
                 </c:pt>
@@ -4434,11 +4520,49 @@
                 </c:pt>
                 <c:pt idx="181">
                   <c:v>0.3785326086956522</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.33550408719346048</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.36944289693593313</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.36473972602739724</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.36202185792349728</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.38163407821229051</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.37780898876404495</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.34376404494382024</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.38342391304347834</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.44633507853403143</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.41494444444444445</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.40778816199376949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9986-4554-B8C5-8974B8577C2B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4621,7 +4745,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4729,10 +4853,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Ethanol!$A$3:$A$132</c:f>
+              <c:f>Ethanol!$A$3:$A$141</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yyyy</c:formatCode>
-                <c:ptCount val="130"/>
+                <c:ptCount val="139"/>
                 <c:pt idx="0">
                   <c:v>38367</c:v>
                 </c:pt>
@@ -5122,16 +5246,43 @@
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>42292</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>42323</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>42353</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>42384</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>42415</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>42444</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>42475</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>42505</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>42536</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>42566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ethanol!$B$3:$B$132</c:f>
+              <c:f>Ethanol!$B$3:$B$141</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="130"/>
+                <c:ptCount val="139"/>
                 <c:pt idx="0">
                   <c:v>1.379</c:v>
                 </c:pt>
@@ -5521,11 +5672,43 @@
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>1.669</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.5069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.647</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.528</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.5509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.6419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.4119999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A2D8-4B33-9308-26F0A605F7BB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5555,10 +5738,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Ethanol!$A$3:$A$132</c:f>
+              <c:f>Ethanol!$A$3:$A$141</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yyyy</c:formatCode>
-                <c:ptCount val="130"/>
+                <c:ptCount val="139"/>
                 <c:pt idx="0">
                   <c:v>38367</c:v>
                 </c:pt>
@@ -5948,16 +6131,43 @@
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>42292</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>42323</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>42353</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>42384</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>42415</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>42444</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>42475</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>42505</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>42536</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>42566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ethanol!$C$3:$C$132</c:f>
+              <c:f>Ethanol!$C$3:$C$141</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="130"/>
+                <c:ptCount val="139"/>
                 <c:pt idx="0">
                   <c:v>1.5149515423207636</c:v>
                 </c:pt>
@@ -6347,11 +6557,43 @@
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>1.4723809523809526</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.4250000000000007</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.3475000000000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.2348157845798291</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.3037500083446503</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.272826085401618</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.4169047531627474</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.4661904602959042</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.5622727274894714</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.4805000245571136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A2D8-4B33-9308-26F0A605F7BB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6566,7 +6808,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6674,10 +6916,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Ethanol!$A$3:$A$132</c:f>
+              <c:f>Ethanol!$A$3:$A$141</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yyyy</c:formatCode>
-                <c:ptCount val="130"/>
+                <c:ptCount val="139"/>
                 <c:pt idx="0">
                   <c:v>38367</c:v>
                 </c:pt>
@@ -7067,16 +7309,43 @@
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>42292</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>42323</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>42353</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>42384</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>42415</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>42444</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>42475</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>42505</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>42536</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>42566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ethanol!$B$3:$B$132</c:f>
+              <c:f>Ethanol!$B$3:$B$141</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="130"/>
+                <c:ptCount val="139"/>
                 <c:pt idx="0">
                   <c:v>1.379</c:v>
                 </c:pt>
@@ -7466,11 +7735,43 @@
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>1.669</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.5069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.647</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.528</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.5509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.6419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.4119999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D1F6-4E65-977C-574CCDAE813B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7501,10 +7802,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Ethanol!$A$3:$A$132</c:f>
+              <c:f>Ethanol!$A$3:$A$141</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yyyy</c:formatCode>
-                <c:ptCount val="130"/>
+                <c:ptCount val="139"/>
                 <c:pt idx="0">
                   <c:v>38367</c:v>
                 </c:pt>
@@ -7894,16 +8195,43 @@
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>42292</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>42323</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>42353</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>42384</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>42415</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>42444</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>42475</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>42505</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>42536</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>42566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ethanol!$C$3:$C$132</c:f>
+              <c:f>Ethanol!$C$3:$C$141</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="130"/>
+                <c:ptCount val="139"/>
                 <c:pt idx="0">
                   <c:v>1.5149515423207636</c:v>
                 </c:pt>
@@ -8293,11 +8621,43 @@
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>1.4723809523809526</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.4250000000000007</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.3475000000000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.2348157845798291</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.3037500083446503</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.272826085401618</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.4169047531627474</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.4661904602959042</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.5622727274894714</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.4805000245571136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D1F6-4E65-977C-574CCDAE813B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -10741,13 +11101,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>65942</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>87923</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10773,13 +11133,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>80596</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>87922</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11134,15 +11494,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF218"/>
+  <dimension ref="A1:AF219"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:32" x14ac:dyDescent="0.25">
@@ -11151,46 +11513,46 @@
       </c>
     </row>
     <row r="3" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="R3" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="R3" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
     </row>
     <row r="4" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
@@ -11230,10 +11592,10 @@
       <c r="P4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="R4" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="30"/>
+      <c r="R4" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" s="32"/>
       <c r="T4" s="5" t="s">
         <v>31</v>
       </c>
@@ -11271,11 +11633,11 @@
         <v>30</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -11344,7 +11706,7 @@
       </c>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B6" s="27"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
@@ -11431,7 +11793,7 @@
       </c>
     </row>
     <row r="7" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B7" s="27"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
@@ -11518,7 +11880,7 @@
       </c>
     </row>
     <row r="8" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B8" s="27"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -11605,7 +11967,7 @@
       </c>
     </row>
     <row r="9" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B9" s="27"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -11692,7 +12054,7 @@
       </c>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B10" s="27"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -11779,7 +12141,7 @@
       </c>
     </row>
     <row r="11" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B11" s="27"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -11866,7 +12228,7 @@
       </c>
     </row>
     <row r="12" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B12" s="27"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -11953,7 +12315,7 @@
       </c>
     </row>
     <row r="13" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B13" s="27"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -12040,7 +12402,7 @@
       </c>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -12127,7 +12489,7 @@
       </c>
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B15" s="27"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -12214,7 +12576,7 @@
       </c>
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B16" s="27"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
@@ -12301,7 +12663,7 @@
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B17" s="27"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
@@ -12388,7 +12750,7 @@
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B18" s="27"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
@@ -12475,7 +12837,7 @@
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B19" s="27"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="1" t="s">
         <v>15</v>
       </c>
@@ -12562,7 +12924,7 @@
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
@@ -12649,48 +13011,94 @@
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B21" s="27"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="3">
         <v>123.13</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="S21" s="6" t="s">
+      <c r="E21" s="2">
+        <v>132.63</v>
+      </c>
+      <c r="F21" s="2">
+        <v>133.13</v>
+      </c>
+      <c r="G21" s="2">
+        <v>132.5</v>
+      </c>
+      <c r="H21" s="2">
+        <v>136.625</v>
+      </c>
+      <c r="I21" s="2">
+        <v>134.5</v>
+      </c>
+      <c r="J21" s="2">
+        <v>122.38</v>
+      </c>
+      <c r="K21" s="2">
+        <v>141.10000000000002</v>
+      </c>
+      <c r="L21" s="2">
+        <v>170.5</v>
+      </c>
+      <c r="M21" s="2">
+        <v>149.38</v>
+      </c>
+      <c r="N21" s="2">
+        <v>130.9</v>
+      </c>
+      <c r="O21" s="2">
+        <v>127.75</v>
+      </c>
+      <c r="P21" s="2">
+        <v>136.21041666666667</v>
+      </c>
+      <c r="S21" s="26" t="s">
         <v>17</v>
       </c>
       <c r="T21" s="10">
         <v>3.68</v>
       </c>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="12" t="s">
-        <v>51</v>
+      <c r="U21" s="10">
+        <v>3.67</v>
+      </c>
+      <c r="V21" s="10">
+        <v>3.59</v>
+      </c>
+      <c r="W21" s="10">
+        <v>3.65</v>
+      </c>
+      <c r="X21" s="10">
+        <v>3.66</v>
+      </c>
+      <c r="Y21" s="10">
+        <v>3.58</v>
+      </c>
+      <c r="Z21" s="10">
+        <v>3.56</v>
+      </c>
+      <c r="AA21" s="10">
+        <v>3.56</v>
+      </c>
+      <c r="AB21" s="10">
+        <v>3.68</v>
+      </c>
+      <c r="AC21" s="10">
+        <v>3.82</v>
+      </c>
+      <c r="AD21" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AE21" s="10">
+        <v>3.21</v>
+      </c>
+      <c r="AF21" s="10">
+        <v>3.61</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B22" s="27"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -12705,41 +13113,68 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="S22" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="27"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="12"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" t="s">
         <v>55</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="8">
-        <v>36739</v>
-      </c>
-      <c r="C24" s="7">
-        <v>73.3</v>
-      </c>
-      <c r="D24" s="10">
-        <v>1.52</v>
-      </c>
-      <c r="E24">
-        <f>D24*100</f>
-        <v>152</v>
-      </c>
-      <c r="F24">
-        <f>C24/E24</f>
-        <v>0.48223684210526313</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -12747,43 +13182,43 @@
         <v>33</v>
       </c>
       <c r="B25" s="8">
-        <v>36770</v>
+        <v>36739</v>
       </c>
       <c r="C25" s="7">
-        <v>73.5</v>
+        <v>73.3</v>
       </c>
       <c r="D25" s="10">
-        <v>1.61</v>
-      </c>
-      <c r="E25" s="4">
-        <f t="shared" ref="E25:E88" si="0">D25*100</f>
-        <v>161</v>
-      </c>
-      <c r="F25" s="4">
-        <f t="shared" ref="F25:F88" si="1">C25/E25</f>
-        <v>0.45652173913043476</v>
+        <v>1.52</v>
+      </c>
+      <c r="E25">
+        <f>D25*100</f>
+        <v>152</v>
+      </c>
+      <c r="F25">
+        <f>C25/E25</f>
+        <v>0.48223684210526313</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="8">
-        <v>36800</v>
+        <v>36770</v>
       </c>
       <c r="C26" s="7">
-        <v>74.400000000000006</v>
+        <v>73.5</v>
       </c>
       <c r="D26" s="10">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="0"/>
-        <v>174</v>
+        <f t="shared" ref="E26:E89" si="0">D26*100</f>
+        <v>161</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="1"/>
-        <v>0.42758620689655175</v>
+        <f t="shared" ref="F26:F89" si="1">C26/E26</f>
+        <v>0.45652173913043476</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
@@ -12791,21 +13226,21 @@
         <v>34</v>
       </c>
       <c r="B27" s="8">
-        <v>36831</v>
+        <v>36800</v>
       </c>
       <c r="C27" s="7">
-        <v>78.25</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="D27" s="10">
-        <v>1.86</v>
+        <v>1.74</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" si="0"/>
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" si="1"/>
-        <v>0.42069892473118281</v>
+        <v>0.42758620689655175</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
@@ -12813,21 +13248,21 @@
         <v>34</v>
       </c>
       <c r="B28" s="8">
-        <v>36861</v>
+        <v>36831</v>
       </c>
       <c r="C28" s="7">
-        <v>86.375</v>
+        <v>78.25</v>
       </c>
       <c r="D28" s="10">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="0"/>
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="1"/>
-        <v>0.43845177664974622</v>
+        <v>0.42069892473118281</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
@@ -12835,21 +13270,21 @@
         <v>34</v>
       </c>
       <c r="B29" s="8">
-        <v>36892</v>
+        <v>36861</v>
       </c>
       <c r="C29" s="7">
-        <v>101.8</v>
+        <v>86.375</v>
       </c>
       <c r="D29" s="10">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" si="0"/>
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" si="1"/>
-        <v>0.51414141414141412</v>
+        <v>0.43845177664974622</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
@@ -12857,21 +13292,21 @@
         <v>34</v>
       </c>
       <c r="B30" s="8">
-        <v>36923</v>
+        <v>36892</v>
       </c>
       <c r="C30" s="7">
-        <v>104.375</v>
+        <v>101.8</v>
       </c>
       <c r="D30" s="10">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" si="1"/>
-        <v>0.53252551020408168</v>
+        <v>0.51414141414141412</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
@@ -12879,10 +13314,10 @@
         <v>34</v>
       </c>
       <c r="B31" s="8">
-        <v>36951</v>
+        <v>36923</v>
       </c>
       <c r="C31" s="7">
-        <v>100</v>
+        <v>104.375</v>
       </c>
       <c r="D31" s="10">
         <v>1.96</v>
@@ -12893,7 +13328,7 @@
       </c>
       <c r="F31" s="4">
         <f t="shared" si="1"/>
-        <v>0.51020408163265307</v>
+        <v>0.53252551020408168</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
@@ -12901,21 +13336,21 @@
         <v>34</v>
       </c>
       <c r="B32" s="8">
-        <v>36982</v>
+        <v>36951</v>
       </c>
       <c r="C32" s="7">
-        <v>92.5</v>
+        <v>100</v>
       </c>
       <c r="D32" s="10">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="E32" s="4">
         <f t="shared" si="0"/>
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F32" s="4">
         <f t="shared" si="1"/>
-        <v>0.48941798941798942</v>
+        <v>0.51020408163265307</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -12923,21 +13358,21 @@
         <v>34</v>
       </c>
       <c r="B33" s="8">
-        <v>37012</v>
+        <v>36982</v>
       </c>
       <c r="C33" s="7">
-        <v>89.800000000000011</v>
+        <v>92.5</v>
       </c>
       <c r="D33" s="10">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" si="0"/>
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" si="1"/>
-        <v>0.49340659340659349</v>
+        <v>0.48941798941798942</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -12945,21 +13380,21 @@
         <v>34</v>
       </c>
       <c r="B34" s="8">
-        <v>37043</v>
+        <v>37012</v>
       </c>
       <c r="C34" s="7">
-        <v>79.75</v>
+        <v>89.800000000000011</v>
       </c>
       <c r="D34" s="10">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="E34" s="4">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F34" s="4">
         <f t="shared" si="1"/>
-        <v>0.453125</v>
+        <v>0.49340659340659349</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -12967,21 +13402,21 @@
         <v>34</v>
       </c>
       <c r="B35" s="8">
-        <v>37073</v>
+        <v>37043</v>
       </c>
       <c r="C35" s="7">
-        <v>81.599999999999994</v>
+        <v>79.75</v>
       </c>
       <c r="D35" s="10">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="E35" s="4">
         <f t="shared" si="0"/>
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F35" s="4">
         <f t="shared" si="1"/>
-        <v>0.43636363636363634</v>
+        <v>0.453125</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -12989,21 +13424,21 @@
         <v>34</v>
       </c>
       <c r="B36" s="8">
-        <v>37104</v>
+        <v>37073</v>
       </c>
       <c r="C36" s="7">
-        <v>89.625</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="D36" s="10">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="E36" s="4">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F36" s="4">
         <f t="shared" si="1"/>
-        <v>0.47171052631578947</v>
+        <v>0.43636363636363634</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -13011,43 +13446,43 @@
         <v>34</v>
       </c>
       <c r="B37" s="8">
-        <v>37135</v>
+        <v>37104</v>
       </c>
       <c r="C37" s="7">
-        <v>90.625</v>
+        <v>89.625</v>
       </c>
       <c r="D37" s="10">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="E37" s="4">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F37" s="4">
         <f t="shared" si="1"/>
-        <v>0.47447643979057591</v>
+        <v>0.47171052631578947</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="8">
-        <v>37165</v>
+        <v>37135</v>
       </c>
       <c r="C38" s="7">
-        <v>92.3</v>
+        <v>90.625</v>
       </c>
       <c r="D38" s="10">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="E38" s="4">
         <f t="shared" si="0"/>
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F38" s="4">
         <f t="shared" si="1"/>
-        <v>0.50163043478260871</v>
+        <v>0.47447643979057591</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -13055,21 +13490,21 @@
         <v>35</v>
       </c>
       <c r="B39" s="8">
-        <v>37196</v>
+        <v>37165</v>
       </c>
       <c r="C39" s="7">
-        <v>88.5</v>
+        <v>92.3</v>
       </c>
       <c r="D39" s="10">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="E39" s="4">
         <f t="shared" si="0"/>
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F39" s="4">
         <f t="shared" si="1"/>
-        <v>0.47837837837837838</v>
+        <v>0.50163043478260871</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -13077,21 +13512,21 @@
         <v>35</v>
       </c>
       <c r="B40" s="8">
-        <v>37226</v>
+        <v>37196</v>
       </c>
       <c r="C40" s="7">
-        <v>87</v>
+        <v>88.5</v>
       </c>
       <c r="D40" s="10">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="E40" s="4">
         <f t="shared" si="0"/>
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F40" s="4">
         <f t="shared" si="1"/>
-        <v>0.43939393939393939</v>
+        <v>0.47837837837837838</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -13099,21 +13534,21 @@
         <v>35</v>
       </c>
       <c r="B41" s="8">
-        <v>37257</v>
+        <v>37226</v>
       </c>
       <c r="C41" s="7">
-        <v>80.900000000000006</v>
+        <v>87</v>
       </c>
       <c r="D41" s="10">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="E41" s="4">
         <f t="shared" si="0"/>
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F41" s="4">
         <f t="shared" si="1"/>
-        <v>0.41065989847715739</v>
+        <v>0.43939393939393939</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -13121,21 +13556,21 @@
         <v>35</v>
       </c>
       <c r="B42" s="8">
-        <v>37288</v>
+        <v>37257</v>
       </c>
       <c r="C42" s="7">
-        <v>79.5</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="D42" s="10">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="E42" s="4">
         <f t="shared" si="0"/>
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F42" s="4">
         <f t="shared" si="1"/>
-        <v>0.41191709844559588</v>
+        <v>0.41065989847715739</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -13143,21 +13578,21 @@
         <v>35</v>
       </c>
       <c r="B43" s="8">
-        <v>37316</v>
+        <v>37288</v>
       </c>
       <c r="C43" s="7">
-        <v>74.75</v>
+        <v>79.5</v>
       </c>
       <c r="D43" s="10">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="E43" s="4">
         <f t="shared" si="0"/>
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F43" s="4">
         <f t="shared" si="1"/>
-        <v>0.38530927835051548</v>
+        <v>0.41191709844559588</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -13165,21 +13600,21 @@
         <v>35</v>
       </c>
       <c r="B44" s="8">
-        <v>37347</v>
+        <v>37316</v>
       </c>
       <c r="C44" s="7">
-        <v>72.900000000000006</v>
+        <v>74.75</v>
       </c>
       <c r="D44" s="10">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="E44" s="4">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F44" s="4">
         <f t="shared" si="1"/>
-        <v>0.3816753926701571</v>
+        <v>0.38530927835051548</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -13187,21 +13622,21 @@
         <v>35</v>
       </c>
       <c r="B45" s="8">
-        <v>37377</v>
+        <v>37347</v>
       </c>
       <c r="C45" s="7">
-        <v>72.875</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="D45" s="10">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="E45" s="4">
         <f t="shared" si="0"/>
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F45" s="4">
         <f t="shared" si="1"/>
-        <v>0.37759067357512954</v>
+        <v>0.3816753926701571</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -13209,21 +13644,21 @@
         <v>35</v>
       </c>
       <c r="B46" s="8">
-        <v>37408</v>
+        <v>37377</v>
       </c>
       <c r="C46" s="7">
-        <v>74.625</v>
+        <v>72.875</v>
       </c>
       <c r="D46" s="10">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="E46" s="4">
         <f t="shared" si="0"/>
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F46" s="4">
         <f t="shared" si="1"/>
-        <v>0.37880710659898476</v>
+        <v>0.37759067357512954</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -13231,21 +13666,21 @@
         <v>35</v>
       </c>
       <c r="B47" s="8">
-        <v>37438</v>
+        <v>37408</v>
       </c>
       <c r="C47" s="7">
-        <v>77.300000000000011</v>
+        <v>74.625</v>
       </c>
       <c r="D47" s="10">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="E47" s="4">
         <f t="shared" si="0"/>
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="F47" s="4">
         <f t="shared" si="1"/>
-        <v>0.36291079812206578</v>
+        <v>0.37880710659898476</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -13253,21 +13688,21 @@
         <v>35</v>
       </c>
       <c r="B48" s="8">
-        <v>37469</v>
+        <v>37438</v>
       </c>
       <c r="C48" s="7">
-        <v>88.125</v>
+        <v>77.300000000000011</v>
       </c>
       <c r="D48" s="10">
-        <v>2.38</v>
+        <v>2.13</v>
       </c>
       <c r="E48" s="4">
         <f t="shared" si="0"/>
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="F48" s="4">
         <f t="shared" si="1"/>
-        <v>0.3702731092436975</v>
+        <v>0.36291079812206578</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -13275,307 +13710,307 @@
         <v>35</v>
       </c>
       <c r="B49" s="8">
-        <v>37500</v>
+        <v>37469</v>
       </c>
       <c r="C49" s="7">
-        <v>95.75</v>
+        <v>88.125</v>
       </c>
       <c r="D49" s="10">
-        <v>2.4700000000000002</v>
+        <v>2.38</v>
       </c>
       <c r="E49" s="4">
         <f t="shared" si="0"/>
-        <v>247.00000000000003</v>
+        <v>238</v>
       </c>
       <c r="F49" s="4">
         <f t="shared" si="1"/>
-        <v>0.38765182186234814</v>
+        <v>0.3702731092436975</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B50" s="8">
-        <v>37530</v>
+        <v>37500</v>
       </c>
       <c r="C50" s="7">
-        <v>100.7</v>
+        <v>95.75</v>
       </c>
       <c r="D50" s="10">
-        <v>2.34</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="E50" s="4">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>247.00000000000003</v>
       </c>
       <c r="F50" s="4">
         <f t="shared" si="1"/>
-        <v>0.43034188034188037</v>
+        <v>0.38765182186234814</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B51" s="8">
-        <v>37561</v>
+        <v>37530</v>
       </c>
       <c r="C51" s="7">
-        <v>98.625</v>
+        <v>100.7</v>
       </c>
       <c r="D51" s="10">
-        <v>2.2799999999999998</v>
+        <v>2.34</v>
       </c>
       <c r="E51" s="4">
         <f t="shared" si="0"/>
-        <v>227.99999999999997</v>
+        <v>234</v>
       </c>
       <c r="F51" s="4">
         <f t="shared" si="1"/>
-        <v>0.43256578947368424</v>
+        <v>0.43034188034188037</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B52" s="8">
-        <v>37591</v>
+        <v>37561</v>
       </c>
       <c r="C52" s="7">
-        <v>95.125</v>
+        <v>98.625</v>
       </c>
       <c r="D52" s="10">
-        <v>2.3199999999999998</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="E52" s="4">
         <f t="shared" si="0"/>
-        <v>231.99999999999997</v>
+        <v>227.99999999999997</v>
       </c>
       <c r="F52" s="4">
         <f t="shared" si="1"/>
-        <v>0.41002155172413796</v>
+        <v>0.43256578947368424</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B53" s="8">
-        <v>37622</v>
+        <v>37591</v>
       </c>
       <c r="C53" s="7">
-        <v>91</v>
+        <v>95.125</v>
       </c>
       <c r="D53" s="10">
-        <v>2.33</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="E53" s="4">
         <f t="shared" si="0"/>
-        <v>233</v>
+        <v>231.99999999999997</v>
       </c>
       <c r="F53" s="4">
         <f t="shared" si="1"/>
-        <v>0.3905579399141631</v>
+        <v>0.41002155172413796</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B54" s="8">
-        <v>37653</v>
+        <v>37622</v>
       </c>
       <c r="C54" s="7">
-        <v>89.5</v>
+        <v>91</v>
       </c>
       <c r="D54" s="10">
-        <v>2.34</v>
+        <v>2.33</v>
       </c>
       <c r="E54" s="4">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F54" s="4">
         <f t="shared" si="1"/>
-        <v>0.38247863247863245</v>
+        <v>0.3905579399141631</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B55" s="8">
-        <v>37681</v>
+        <v>37653</v>
       </c>
       <c r="C55" s="7">
-        <v>93.875</v>
+        <v>89.5</v>
       </c>
       <c r="D55" s="10">
-        <v>2.33</v>
+        <v>2.34</v>
       </c>
       <c r="E55" s="4">
         <f t="shared" si="0"/>
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F55" s="4">
         <f t="shared" si="1"/>
-        <v>0.40289699570815452</v>
+        <v>0.38247863247863245</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B56" s="8">
-        <v>37712</v>
+        <v>37681</v>
       </c>
       <c r="C56" s="7">
-        <v>91.6</v>
+        <v>93.875</v>
       </c>
       <c r="D56" s="10">
-        <v>2.34</v>
+        <v>2.33</v>
       </c>
       <c r="E56" s="4">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F56" s="4">
         <f t="shared" si="1"/>
-        <v>0.39145299145299145</v>
+        <v>0.40289699570815452</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B57" s="8">
-        <v>37742</v>
+        <v>37712</v>
       </c>
       <c r="C57" s="7">
-        <v>71.97</v>
+        <v>91.6</v>
       </c>
       <c r="D57" s="10">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="E57" s="4">
         <f t="shared" si="0"/>
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F57" s="4">
         <f t="shared" si="1"/>
-        <v>0.30239495798319327</v>
+        <v>0.39145299145299145</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B58" s="8">
-        <v>37773</v>
+        <v>37742</v>
       </c>
       <c r="C58" s="7">
-        <v>83.875</v>
+        <v>71.97</v>
       </c>
       <c r="D58" s="10">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="E58" s="4">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F58" s="4">
         <f t="shared" si="1"/>
-        <v>0.35844017094017094</v>
+        <v>0.30239495798319327</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B59" s="8">
-        <v>37803</v>
+        <v>37773</v>
       </c>
       <c r="C59" s="7">
-        <v>82.1</v>
+        <v>83.875</v>
       </c>
       <c r="D59" s="10">
-        <v>2.17</v>
+        <v>2.34</v>
       </c>
       <c r="E59" s="4">
         <f t="shared" si="0"/>
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="F59" s="4">
         <f t="shared" si="1"/>
-        <v>0.37834101382488478</v>
+        <v>0.35844017094017094</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B60" s="8">
-        <v>37834</v>
+        <v>37803</v>
       </c>
       <c r="C60" s="7">
-        <v>82.25</v>
+        <v>82.1</v>
       </c>
       <c r="D60" s="10">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="E60" s="4">
         <f t="shared" si="0"/>
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F60" s="4">
         <f t="shared" si="1"/>
-        <v>0.38255813953488371</v>
+        <v>0.37834101382488478</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B61" s="8">
-        <v>37865</v>
+        <v>37834</v>
       </c>
       <c r="C61" s="7">
-        <v>91.699999999999989</v>
+        <v>82.25</v>
       </c>
       <c r="D61" s="10">
-        <v>2.2000000000000002</v>
+        <v>2.15</v>
       </c>
       <c r="E61" s="4">
         <f t="shared" si="0"/>
-        <v>220.00000000000003</v>
+        <v>215</v>
       </c>
       <c r="F61" s="4">
         <f t="shared" si="1"/>
-        <v>0.4168181818181817</v>
+        <v>0.38255813953488371</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B62" s="8">
-        <v>37895</v>
+        <v>37865</v>
       </c>
       <c r="C62" s="7">
-        <v>103.75</v>
+        <v>91.699999999999989</v>
       </c>
       <c r="D62" s="10">
-        <v>2.12</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E62" s="4">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="F62" s="4">
         <f t="shared" si="1"/>
-        <v>0.48938679245283018</v>
+        <v>0.4168181818181817</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -13583,21 +14018,21 @@
         <v>37</v>
       </c>
       <c r="B63" s="8">
-        <v>37926</v>
+        <v>37895</v>
       </c>
       <c r="C63" s="7">
-        <v>123.75</v>
+        <v>103.75</v>
       </c>
       <c r="D63" s="10">
-        <v>2.2000000000000002</v>
+        <v>2.12</v>
       </c>
       <c r="E63" s="4">
         <f t="shared" si="0"/>
-        <v>220.00000000000003</v>
+        <v>212</v>
       </c>
       <c r="F63" s="4">
         <f t="shared" si="1"/>
-        <v>0.56249999999999989</v>
+        <v>0.48938679245283018</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -13605,21 +14040,21 @@
         <v>37</v>
       </c>
       <c r="B64" s="8">
-        <v>37956</v>
+        <v>37926</v>
       </c>
       <c r="C64" s="7">
-        <v>130.1</v>
+        <v>123.75</v>
       </c>
       <c r="D64" s="10">
-        <v>2.31</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E64" s="4">
         <f t="shared" si="0"/>
-        <v>231</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="F64" s="4">
         <f t="shared" si="1"/>
-        <v>0.56320346320346315</v>
+        <v>0.56249999999999989</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -13627,21 +14062,21 @@
         <v>37</v>
       </c>
       <c r="B65" s="8">
-        <v>37987</v>
+        <v>37956</v>
       </c>
       <c r="C65" s="7">
-        <v>121.125</v>
+        <v>130.1</v>
       </c>
       <c r="D65" s="10">
-        <v>2.39</v>
+        <v>2.31</v>
       </c>
       <c r="E65" s="4">
         <f t="shared" si="0"/>
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F65" s="4">
         <f t="shared" si="1"/>
-        <v>0.50679916317991636</v>
+        <v>0.56320346320346315</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -13649,21 +14084,21 @@
         <v>37</v>
       </c>
       <c r="B66" s="8">
-        <v>38018</v>
+        <v>37987</v>
       </c>
       <c r="C66" s="7">
-        <v>120.375</v>
+        <v>121.125</v>
       </c>
       <c r="D66" s="10">
-        <v>2.61</v>
+        <v>2.39</v>
       </c>
       <c r="E66" s="4">
         <f t="shared" si="0"/>
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="F66" s="4">
         <f t="shared" si="1"/>
-        <v>0.46120689655172414</v>
+        <v>0.50679916317991636</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -13671,21 +14106,21 @@
         <v>37</v>
       </c>
       <c r="B67" s="8">
-        <v>38047</v>
+        <v>38018</v>
       </c>
       <c r="C67" s="7">
-        <v>121.1</v>
+        <v>120.375</v>
       </c>
       <c r="D67" s="10">
-        <v>2.75</v>
+        <v>2.61</v>
       </c>
       <c r="E67" s="4">
         <f t="shared" si="0"/>
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="F67" s="4">
         <f t="shared" si="1"/>
-        <v>0.44036363636363635</v>
+        <v>0.46120689655172414</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -13693,21 +14128,21 @@
         <v>37</v>
       </c>
       <c r="B68" s="8">
-        <v>38078</v>
+        <v>38047</v>
       </c>
       <c r="C68" s="7">
-        <v>118.66500000000001</v>
+        <v>121.1</v>
       </c>
       <c r="D68" s="10">
-        <v>2.89</v>
+        <v>2.75</v>
       </c>
       <c r="E68" s="4">
         <f t="shared" si="0"/>
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F68" s="4">
         <f t="shared" si="1"/>
-        <v>0.41060553633217994</v>
+        <v>0.44036363636363635</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -13715,21 +14150,21 @@
         <v>37</v>
       </c>
       <c r="B69" s="8">
-        <v>38108</v>
+        <v>38078</v>
       </c>
       <c r="C69" s="7">
-        <v>110.125</v>
+        <v>118.66500000000001</v>
       </c>
       <c r="D69" s="10">
-        <v>2.87</v>
+        <v>2.89</v>
       </c>
       <c r="E69" s="4">
         <f t="shared" si="0"/>
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F69" s="4">
         <f t="shared" si="1"/>
-        <v>0.38371080139372821</v>
+        <v>0.41060553633217994</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -13737,21 +14172,21 @@
         <v>37</v>
       </c>
       <c r="B70" s="8">
-        <v>38139</v>
+        <v>38108</v>
       </c>
       <c r="C70" s="7">
-        <v>93.5</v>
+        <v>110.125</v>
       </c>
       <c r="D70" s="10">
-        <v>2.79</v>
+        <v>2.87</v>
       </c>
       <c r="E70" s="4">
         <f t="shared" si="0"/>
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F70" s="4">
         <f t="shared" si="1"/>
-        <v>0.33512544802867383</v>
+        <v>0.38371080139372821</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -13759,21 +14194,21 @@
         <v>37</v>
       </c>
       <c r="B71" s="8">
-        <v>38169</v>
+        <v>38139</v>
       </c>
       <c r="C71" s="7">
-        <v>87.25</v>
+        <v>93.5</v>
       </c>
       <c r="D71" s="10">
-        <v>2.5099999999999998</v>
+        <v>2.79</v>
       </c>
       <c r="E71" s="4">
         <f t="shared" si="0"/>
-        <v>250.99999999999997</v>
+        <v>279</v>
       </c>
       <c r="F71" s="4">
         <f t="shared" si="1"/>
-        <v>0.34760956175298807</v>
+        <v>0.33512544802867383</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -13781,21 +14216,21 @@
         <v>37</v>
       </c>
       <c r="B72" s="8">
-        <v>38200</v>
+        <v>38169</v>
       </c>
       <c r="C72" s="7">
-        <v>87.4</v>
+        <v>87.25</v>
       </c>
       <c r="D72" s="10">
-        <v>2.34</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="E72" s="4">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>250.99999999999997</v>
       </c>
       <c r="F72" s="4">
         <f t="shared" si="1"/>
-        <v>0.37350427350427351</v>
+        <v>0.34760956175298807</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -13803,43 +14238,43 @@
         <v>37</v>
       </c>
       <c r="B73" s="8">
-        <v>38231</v>
+        <v>38200</v>
       </c>
       <c r="C73" s="7">
-        <v>84.5</v>
+        <v>87.4</v>
       </c>
       <c r="D73" s="10">
-        <v>2.2000000000000002</v>
+        <v>2.34</v>
       </c>
       <c r="E73" s="4">
         <f t="shared" si="0"/>
-        <v>220.00000000000003</v>
+        <v>234</v>
       </c>
       <c r="F73" s="4">
         <f t="shared" si="1"/>
-        <v>0.38409090909090904</v>
+        <v>0.37350427350427351</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B74" s="8">
-        <v>38261</v>
+        <v>38231</v>
       </c>
       <c r="C74" s="7">
-        <v>79.125</v>
+        <v>84.5</v>
       </c>
       <c r="D74" s="10">
-        <v>2.14</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E74" s="4">
         <f t="shared" si="0"/>
-        <v>214</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="F74" s="4">
         <f t="shared" si="1"/>
-        <v>0.36974299065420563</v>
+        <v>0.38409090909090904</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -13847,21 +14282,21 @@
         <v>38</v>
       </c>
       <c r="B75" s="8">
-        <v>38292</v>
+        <v>38261</v>
       </c>
       <c r="C75" s="7">
-        <v>73.5</v>
+        <v>79.125</v>
       </c>
       <c r="D75" s="10">
-        <v>2.0499999999999998</v>
+        <v>2.14</v>
       </c>
       <c r="E75" s="4">
         <f t="shared" si="0"/>
-        <v>204.99999999999997</v>
+        <v>214</v>
       </c>
       <c r="F75" s="4">
         <f t="shared" si="1"/>
-        <v>0.3585365853658537</v>
+        <v>0.36974299065420563</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -13869,21 +14304,21 @@
         <v>38</v>
       </c>
       <c r="B76" s="8">
-        <v>38322</v>
+        <v>38292</v>
       </c>
       <c r="C76" s="7">
-        <v>72.5</v>
+        <v>73.5</v>
       </c>
       <c r="D76" s="10">
-        <v>2.04</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="E76" s="4">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>204.99999999999997</v>
       </c>
       <c r="F76" s="4">
         <f t="shared" si="1"/>
-        <v>0.35539215686274511</v>
+        <v>0.3585365853658537</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -13891,21 +14326,21 @@
         <v>38</v>
       </c>
       <c r="B77" s="8">
-        <v>38353</v>
+        <v>38322</v>
       </c>
       <c r="C77" s="7">
-        <v>71</v>
+        <v>72.5</v>
       </c>
       <c r="D77" s="10">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="E77" s="4">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F77" s="4">
         <f t="shared" si="1"/>
-        <v>0.33490566037735847</v>
+        <v>0.35539215686274511</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -13913,21 +14348,21 @@
         <v>38</v>
       </c>
       <c r="B78" s="8">
-        <v>38384</v>
+        <v>38353</v>
       </c>
       <c r="C78" s="7">
-        <v>68.25</v>
+        <v>71</v>
       </c>
       <c r="D78" s="10">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="E78" s="4">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="F78" s="4">
         <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>0.33490566037735847</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -13935,21 +14370,21 @@
         <v>38</v>
       </c>
       <c r="B79" s="8">
-        <v>38412</v>
+        <v>38384</v>
       </c>
       <c r="C79" s="7">
-        <v>66.7</v>
+        <v>68.25</v>
       </c>
       <c r="D79" s="10">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="E79" s="4">
         <f t="shared" si="0"/>
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F79" s="4">
         <f t="shared" si="1"/>
-        <v>0.33019801980198021</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -13957,21 +14392,21 @@
         <v>38</v>
       </c>
       <c r="B80" s="8">
-        <v>38443</v>
+        <v>38412</v>
       </c>
       <c r="C80" s="7">
-        <v>64.875</v>
+        <v>66.7</v>
       </c>
       <c r="D80" s="10">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="E80" s="4">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F80" s="4">
         <f t="shared" si="1"/>
-        <v>0.32437500000000002</v>
+        <v>0.33019801980198021</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -13979,21 +14414,21 @@
         <v>38</v>
       </c>
       <c r="B81" s="8">
-        <v>38473</v>
+        <v>38443</v>
       </c>
       <c r="C81" s="7">
-        <v>64.400000000000006</v>
+        <v>64.875</v>
       </c>
       <c r="D81" s="10">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="E81" s="4">
         <f t="shared" si="0"/>
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F81" s="4">
         <f t="shared" si="1"/>
-        <v>0.32525252525252529</v>
+        <v>0.32437500000000002</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -14001,21 +14436,21 @@
         <v>38</v>
       </c>
       <c r="B82" s="8">
-        <v>38504</v>
+        <v>38473</v>
       </c>
       <c r="C82" s="7">
-        <v>64.125</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="D82" s="10">
-        <v>2.0299999999999998</v>
+        <v>1.98</v>
       </c>
       <c r="E82" s="4">
         <f t="shared" si="0"/>
-        <v>202.99999999999997</v>
+        <v>198</v>
       </c>
       <c r="F82" s="4">
         <f t="shared" si="1"/>
-        <v>0.31588669950738918</v>
+        <v>0.32525252525252529</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -14023,21 +14458,21 @@
         <v>38</v>
       </c>
       <c r="B83" s="8">
-        <v>38534</v>
+        <v>38504</v>
       </c>
       <c r="C83" s="7">
-        <v>67.5</v>
+        <v>64.125</v>
       </c>
       <c r="D83" s="10">
-        <v>2.11</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E83" s="4">
         <f t="shared" si="0"/>
-        <v>211</v>
+        <v>202.99999999999997</v>
       </c>
       <c r="F83" s="4">
         <f t="shared" si="1"/>
-        <v>0.31990521327014215</v>
+        <v>0.31588669950738918</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -14045,21 +14480,21 @@
         <v>38</v>
       </c>
       <c r="B84" s="8">
-        <v>38565</v>
+        <v>38534</v>
       </c>
       <c r="C84" s="7">
-        <v>69.900000000000006</v>
+        <v>67.5</v>
       </c>
       <c r="D84" s="10">
-        <v>1.95</v>
+        <v>2.11</v>
       </c>
       <c r="E84" s="4">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="F84" s="4">
         <f t="shared" si="1"/>
-        <v>0.3584615384615385</v>
+        <v>0.31990521327014215</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -14067,43 +14502,43 @@
         <v>38</v>
       </c>
       <c r="B85" s="8">
-        <v>38596</v>
+        <v>38565</v>
       </c>
       <c r="C85" s="7">
-        <v>66.875</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="D85" s="10">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="E85" s="4">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F85" s="4">
         <f t="shared" si="1"/>
-        <v>0.35197368421052633</v>
+        <v>0.3584615384615385</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B86" s="8">
-        <v>38626</v>
+        <v>38596</v>
       </c>
       <c r="C86" s="7">
-        <v>63.375</v>
+        <v>66.875</v>
       </c>
       <c r="D86" s="10">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="E86" s="4">
         <f t="shared" si="0"/>
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F86" s="4">
         <f t="shared" si="1"/>
-        <v>0.3482142857142857</v>
+        <v>0.35197368421052633</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -14111,21 +14546,21 @@
         <v>39</v>
       </c>
       <c r="B87" s="8">
-        <v>38657</v>
+        <v>38626</v>
       </c>
       <c r="C87" s="7">
-        <v>64.599999999999994</v>
+        <v>63.375</v>
       </c>
       <c r="D87" s="10">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="E87" s="4">
         <f t="shared" si="0"/>
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F87" s="4">
         <f t="shared" si="1"/>
-        <v>0.36497175141242932</v>
+        <v>0.3482142857142857</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -14133,21 +14568,21 @@
         <v>39</v>
       </c>
       <c r="B88" s="8">
-        <v>38687</v>
+        <v>38657</v>
       </c>
       <c r="C88" s="7">
-        <v>73.125</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="D88" s="10">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="E88" s="4">
         <f t="shared" si="0"/>
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F88" s="4">
         <f t="shared" si="1"/>
-        <v>0.380859375</v>
+        <v>0.36497175141242932</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -14155,21 +14590,21 @@
         <v>39</v>
       </c>
       <c r="B89" s="8">
-        <v>38718</v>
+        <v>38687</v>
       </c>
       <c r="C89" s="7">
-        <v>83.7</v>
+        <v>73.125</v>
       </c>
       <c r="D89" s="10">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="E89" s="4">
-        <f t="shared" ref="E89:E152" si="2">D89*100</f>
-        <v>200</v>
+        <f t="shared" si="0"/>
+        <v>192</v>
       </c>
       <c r="F89" s="4">
-        <f t="shared" ref="F89:F152" si="3">C89/E89</f>
-        <v>0.41850000000000004</v>
+        <f t="shared" si="1"/>
+        <v>0.380859375</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -14177,21 +14612,21 @@
         <v>39</v>
       </c>
       <c r="B90" s="8">
-        <v>38749</v>
+        <v>38718</v>
       </c>
       <c r="C90" s="7">
-        <v>86.25</v>
+        <v>83.7</v>
       </c>
       <c r="D90" s="10">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="E90" s="4">
-        <f t="shared" si="2"/>
-        <v>202</v>
+        <f t="shared" ref="E90:E153" si="2">D90*100</f>
+        <v>200</v>
       </c>
       <c r="F90" s="4">
-        <f t="shared" si="3"/>
-        <v>0.42698019801980197</v>
+        <f t="shared" ref="F90:F153" si="3">C90/E90</f>
+        <v>0.41850000000000004</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -14199,21 +14634,21 @@
         <v>39</v>
       </c>
       <c r="B91" s="8">
-        <v>38777</v>
+        <v>38749</v>
       </c>
       <c r="C91" s="7">
-        <v>85.875</v>
+        <v>86.25</v>
       </c>
       <c r="D91" s="10">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="E91" s="4">
         <f t="shared" si="2"/>
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F91" s="4">
         <f t="shared" si="3"/>
-        <v>0.41686893203883496</v>
+        <v>0.42698019801980197</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -14221,21 +14656,21 @@
         <v>39</v>
       </c>
       <c r="B92" s="8">
-        <v>38808</v>
+        <v>38777</v>
       </c>
       <c r="C92" s="7">
-        <v>90.625</v>
+        <v>85.875</v>
       </c>
       <c r="D92" s="10">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="E92" s="4">
         <f t="shared" si="2"/>
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F92" s="4">
         <f t="shared" si="3"/>
-        <v>0.42950236966824645</v>
+        <v>0.41686893203883496</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -14243,21 +14678,21 @@
         <v>39</v>
       </c>
       <c r="B93" s="8">
-        <v>38838</v>
+        <v>38808</v>
       </c>
       <c r="C93" s="7">
-        <v>92</v>
+        <v>90.625</v>
       </c>
       <c r="D93" s="10">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="E93" s="4">
         <f t="shared" si="2"/>
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F93" s="4">
         <f t="shared" si="3"/>
-        <v>0.42396313364055299</v>
+        <v>0.42950236966824645</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -14265,21 +14700,21 @@
         <v>39</v>
       </c>
       <c r="B94" s="8">
-        <v>38869</v>
+        <v>38838</v>
       </c>
       <c r="C94" s="7">
-        <v>85.75</v>
+        <v>92</v>
       </c>
       <c r="D94" s="10">
-        <v>2.14</v>
+        <v>2.17</v>
       </c>
       <c r="E94" s="4">
         <f t="shared" si="2"/>
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F94" s="4">
         <f t="shared" si="3"/>
-        <v>0.40070093457943923</v>
+        <v>0.42396313364055299</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -14287,10 +14722,10 @@
         <v>39</v>
       </c>
       <c r="B95" s="8">
-        <v>38899</v>
+        <v>38869</v>
       </c>
       <c r="C95" s="7">
-        <v>80</v>
+        <v>85.75</v>
       </c>
       <c r="D95" s="10">
         <v>2.14</v>
@@ -14301,7 +14736,7 @@
       </c>
       <c r="F95" s="4">
         <f t="shared" si="3"/>
-        <v>0.37383177570093457</v>
+        <v>0.40070093457943923</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -14309,21 +14744,21 @@
         <v>39</v>
       </c>
       <c r="B96" s="8">
-        <v>38930</v>
+        <v>38899</v>
       </c>
       <c r="C96" s="7">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D96" s="10">
-        <v>2.09</v>
+        <v>2.14</v>
       </c>
       <c r="E96" s="4">
         <f t="shared" si="2"/>
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F96" s="4">
         <f t="shared" si="3"/>
-        <v>0.36842105263157893</v>
+        <v>0.37383177570093457</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -14331,43 +14766,43 @@
         <v>39</v>
       </c>
       <c r="B97" s="8">
-        <v>38961</v>
+        <v>38930</v>
       </c>
       <c r="C97" s="7">
-        <v>74.625</v>
+        <v>77</v>
       </c>
       <c r="D97" s="10">
-        <v>2.2000000000000002</v>
+        <v>2.09</v>
       </c>
       <c r="E97" s="4">
         <f t="shared" si="2"/>
-        <v>220.00000000000003</v>
+        <v>209</v>
       </c>
       <c r="F97" s="4">
         <f t="shared" si="3"/>
-        <v>0.33920454545454543</v>
+        <v>0.36842105263157893</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B98" s="8">
-        <v>38991</v>
+        <v>38961</v>
       </c>
       <c r="C98" s="7">
-        <v>84.5</v>
+        <v>74.625</v>
       </c>
       <c r="D98" s="10">
-        <v>2.5499999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E98" s="4">
         <f t="shared" si="2"/>
-        <v>254.99999999999997</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="F98" s="4">
         <f t="shared" si="3"/>
-        <v>0.33137254901960789</v>
+        <v>0.33920454545454543</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -14375,21 +14810,21 @@
         <v>40</v>
       </c>
       <c r="B99" s="8">
-        <v>39022</v>
+        <v>38991</v>
       </c>
       <c r="C99" s="7">
-        <v>106.4</v>
+        <v>84.5</v>
       </c>
       <c r="D99" s="10">
-        <v>2.88</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="E99" s="4">
         <f t="shared" si="2"/>
-        <v>288</v>
+        <v>254.99999999999997</v>
       </c>
       <c r="F99" s="4">
         <f t="shared" si="3"/>
-        <v>0.36944444444444446</v>
+        <v>0.33137254901960789</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -14397,21 +14832,21 @@
         <v>40</v>
       </c>
       <c r="B100" s="8">
-        <v>39052</v>
+        <v>39022</v>
       </c>
       <c r="C100" s="7">
-        <v>123.625</v>
+        <v>106.4</v>
       </c>
       <c r="D100" s="10">
-        <v>3.01</v>
+        <v>2.88</v>
       </c>
       <c r="E100" s="4">
         <f t="shared" si="2"/>
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="F100" s="4">
         <f t="shared" si="3"/>
-        <v>0.4107142857142857</v>
+        <v>0.36944444444444446</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -14419,21 +14854,21 @@
         <v>40</v>
       </c>
       <c r="B101" s="8">
-        <v>39083</v>
+        <v>39052</v>
       </c>
       <c r="C101" s="7">
-        <v>127.5</v>
+        <v>123.625</v>
       </c>
       <c r="D101" s="10">
-        <v>3.05</v>
+        <v>3.01</v>
       </c>
       <c r="E101" s="4">
         <f t="shared" si="2"/>
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F101" s="4">
         <f t="shared" si="3"/>
-        <v>0.41803278688524592</v>
+        <v>0.4107142857142857</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -14441,21 +14876,21 @@
         <v>40</v>
       </c>
       <c r="B102" s="8">
-        <v>39114</v>
+        <v>39083</v>
       </c>
       <c r="C102" s="7">
-        <v>132.5</v>
+        <v>127.5</v>
       </c>
       <c r="D102" s="10">
-        <v>3.44</v>
+        <v>3.05</v>
       </c>
       <c r="E102" s="4">
         <f t="shared" si="2"/>
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="F102" s="4">
         <f t="shared" si="3"/>
-        <v>0.38517441860465118</v>
+        <v>0.41803278688524592</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -14463,21 +14898,21 @@
         <v>40</v>
       </c>
       <c r="B103" s="8">
-        <v>39142</v>
+        <v>39114</v>
       </c>
       <c r="C103" s="7">
-        <v>131.25</v>
+        <v>132.5</v>
       </c>
       <c r="D103" s="10">
-        <v>3.43</v>
+        <v>3.44</v>
       </c>
       <c r="E103" s="4">
         <f t="shared" si="2"/>
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F103" s="4">
         <f t="shared" si="3"/>
-        <v>0.38265306122448978</v>
+        <v>0.38517441860465118</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -14485,21 +14920,21 @@
         <v>40</v>
       </c>
       <c r="B104" s="8">
-        <v>39173</v>
+        <v>39142</v>
       </c>
       <c r="C104" s="7">
-        <v>117.625</v>
+        <v>131.25</v>
       </c>
       <c r="D104" s="10">
-        <v>3.39</v>
+        <v>3.43</v>
       </c>
       <c r="E104" s="4">
         <f t="shared" si="2"/>
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F104" s="4">
         <f t="shared" si="3"/>
-        <v>0.346976401179941</v>
+        <v>0.38265306122448978</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -14507,21 +14942,21 @@
         <v>40</v>
       </c>
       <c r="B105" s="8">
-        <v>39203</v>
+        <v>39173</v>
       </c>
       <c r="C105" s="7">
-        <v>107</v>
+        <v>117.625</v>
       </c>
       <c r="D105" s="10">
-        <v>3.49</v>
+        <v>3.39</v>
       </c>
       <c r="E105" s="4">
         <f t="shared" si="2"/>
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="F105" s="4">
         <f t="shared" si="3"/>
-        <v>0.30659025787965616</v>
+        <v>0.346976401179941</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -14529,21 +14964,21 @@
         <v>40</v>
       </c>
       <c r="B106" s="8">
-        <v>39234</v>
+        <v>39203</v>
       </c>
       <c r="C106" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D106" s="10">
-        <v>3.53</v>
+        <v>3.49</v>
       </c>
       <c r="E106" s="4">
         <f t="shared" si="2"/>
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F106" s="4">
         <f t="shared" si="3"/>
-        <v>0.30594900849858359</v>
+        <v>0.30659025787965616</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -14551,21 +14986,21 @@
         <v>40</v>
       </c>
       <c r="B107" s="8">
-        <v>39264</v>
+        <v>39234</v>
       </c>
       <c r="C107" s="7">
-        <v>111.2</v>
+        <v>108</v>
       </c>
       <c r="D107" s="10">
-        <v>3.32</v>
+        <v>3.53</v>
       </c>
       <c r="E107" s="4">
         <f t="shared" si="2"/>
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="F107" s="4">
         <f t="shared" si="3"/>
-        <v>0.33493975903614459</v>
+        <v>0.30594900849858359</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -14573,21 +15008,21 @@
         <v>40</v>
       </c>
       <c r="B108" s="8">
-        <v>39295</v>
+        <v>39264</v>
       </c>
       <c r="C108" s="7">
-        <v>112.5</v>
+        <v>111.2</v>
       </c>
       <c r="D108" s="10">
-        <v>3.26</v>
+        <v>3.32</v>
       </c>
       <c r="E108" s="4">
         <f t="shared" si="2"/>
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="F108" s="4">
         <f t="shared" si="3"/>
-        <v>0.34509202453987731</v>
+        <v>0.33493975903614459</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -14595,43 +15030,43 @@
         <v>40</v>
       </c>
       <c r="B109" s="8">
-        <v>39326</v>
+        <v>39295</v>
       </c>
       <c r="C109" s="7">
-        <v>114.5</v>
+        <v>112.5</v>
       </c>
       <c r="D109" s="10">
-        <v>3.28</v>
+        <v>3.26</v>
       </c>
       <c r="E109" s="4">
         <f t="shared" si="2"/>
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F109" s="4">
         <f t="shared" si="3"/>
-        <v>0.34908536585365851</v>
+        <v>0.34509202453987731</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B110" s="8">
-        <v>39356</v>
+        <v>39326</v>
       </c>
       <c r="C110" s="7">
-        <v>121.4</v>
+        <v>114.5</v>
       </c>
       <c r="D110" s="10">
-        <v>3.29</v>
+        <v>3.28</v>
       </c>
       <c r="E110" s="4">
         <f t="shared" si="2"/>
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F110" s="4">
         <f t="shared" si="3"/>
-        <v>0.36899696048632219</v>
+        <v>0.34908536585365851</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -14639,21 +15074,21 @@
         <v>41</v>
       </c>
       <c r="B111" s="8">
-        <v>39387</v>
+        <v>39356</v>
       </c>
       <c r="C111" s="7">
-        <v>138.375</v>
+        <v>121.4</v>
       </c>
       <c r="D111" s="10">
-        <v>3.44</v>
+        <v>3.29</v>
       </c>
       <c r="E111" s="4">
         <f t="shared" si="2"/>
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="F111" s="4">
         <f t="shared" si="3"/>
-        <v>0.40225290697674421</v>
+        <v>0.36899696048632219</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -14661,21 +15096,21 @@
         <v>41</v>
       </c>
       <c r="B112" s="8">
-        <v>39417</v>
+        <v>39387</v>
       </c>
       <c r="C112" s="7">
-        <v>147.33499999999998</v>
+        <v>138.375</v>
       </c>
       <c r="D112" s="10">
-        <v>3.77</v>
+        <v>3.44</v>
       </c>
       <c r="E112" s="4">
         <f t="shared" si="2"/>
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="F112" s="4">
         <f t="shared" si="3"/>
-        <v>0.39080901856763922</v>
+        <v>0.40225290697674421</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -14683,21 +15118,21 @@
         <v>41</v>
       </c>
       <c r="B113" s="8">
-        <v>39448</v>
+        <v>39417</v>
       </c>
       <c r="C113" s="7">
-        <v>170</v>
+        <v>147.33499999999998</v>
       </c>
       <c r="D113" s="10">
-        <v>3.98</v>
+        <v>3.77</v>
       </c>
       <c r="E113" s="4">
         <f t="shared" si="2"/>
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="F113" s="4">
         <f t="shared" si="3"/>
-        <v>0.42713567839195982</v>
+        <v>0.39080901856763922</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -14705,21 +15140,21 @@
         <v>41</v>
       </c>
       <c r="B114" s="8">
-        <v>39479</v>
+        <v>39448</v>
       </c>
       <c r="C114" s="7">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D114" s="10">
-        <v>4.54</v>
+        <v>3.98</v>
       </c>
       <c r="E114" s="4">
         <f t="shared" si="2"/>
-        <v>454</v>
+        <v>398</v>
       </c>
       <c r="F114" s="4">
         <f t="shared" si="3"/>
-        <v>0.3656387665198238</v>
+        <v>0.42713567839195982</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -14727,21 +15162,21 @@
         <v>41</v>
       </c>
       <c r="B115" s="8">
-        <v>39508</v>
+        <v>39479</v>
       </c>
       <c r="C115" s="7">
-        <v>168.625</v>
+        <v>166</v>
       </c>
       <c r="D115" s="10">
-        <v>4.7</v>
+        <v>4.54</v>
       </c>
       <c r="E115" s="4">
         <f t="shared" si="2"/>
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="F115" s="4">
         <f t="shared" si="3"/>
-        <v>0.35877659574468085</v>
+        <v>0.3656387665198238</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -14749,21 +15184,21 @@
         <v>41</v>
       </c>
       <c r="B116" s="8">
-        <v>39539</v>
+        <v>39508</v>
       </c>
       <c r="C116" s="7">
-        <v>177.5</v>
+        <v>168.625</v>
       </c>
       <c r="D116" s="10">
-        <v>5.14</v>
+        <v>4.7</v>
       </c>
       <c r="E116" s="4">
         <f t="shared" si="2"/>
-        <v>514</v>
+        <v>470</v>
       </c>
       <c r="F116" s="4">
         <f t="shared" si="3"/>
-        <v>0.34533073929961089</v>
+        <v>0.35877659574468085</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -14771,21 +15206,21 @@
         <v>41</v>
       </c>
       <c r="B117" s="8">
-        <v>39569</v>
+        <v>39539</v>
       </c>
       <c r="C117" s="7">
-        <v>175.875</v>
+        <v>177.5</v>
       </c>
       <c r="D117" s="10">
-        <v>5.27</v>
+        <v>5.14</v>
       </c>
       <c r="E117" s="4">
         <f t="shared" si="2"/>
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="F117" s="4">
         <f t="shared" si="3"/>
-        <v>0.33372865275142316</v>
+        <v>0.34533073929961089</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -14793,21 +15228,21 @@
         <v>41</v>
       </c>
       <c r="B118" s="8">
-        <v>39600</v>
+        <v>39569</v>
       </c>
       <c r="C118" s="7">
-        <v>174.25</v>
+        <v>175.875</v>
       </c>
       <c r="D118" s="10">
-        <v>5.47</v>
+        <v>5.27</v>
       </c>
       <c r="E118" s="4">
         <f t="shared" si="2"/>
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="F118" s="4">
         <f t="shared" si="3"/>
-        <v>0.31855575868372943</v>
+        <v>0.33372865275142316</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -14815,21 +15250,21 @@
         <v>41</v>
       </c>
       <c r="B119" s="8">
-        <v>39630</v>
+        <v>39600</v>
       </c>
       <c r="C119" s="7">
-        <v>174.1</v>
+        <v>174.25</v>
       </c>
       <c r="D119" s="10">
-        <v>5.25</v>
+        <v>5.47</v>
       </c>
       <c r="E119" s="4">
         <f t="shared" si="2"/>
-        <v>525</v>
+        <v>547</v>
       </c>
       <c r="F119" s="4">
         <f t="shared" si="3"/>
-        <v>0.33161904761904759</v>
+        <v>0.31855575868372943</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -14837,21 +15272,21 @@
         <v>41</v>
       </c>
       <c r="B120" s="8">
-        <v>39661</v>
+        <v>39630</v>
       </c>
       <c r="C120" s="7">
-        <v>153.125</v>
+        <v>174.1</v>
       </c>
       <c r="D120" s="10">
-        <v>5.26</v>
+        <v>5.25</v>
       </c>
       <c r="E120" s="4">
         <f t="shared" si="2"/>
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F120" s="4">
         <f t="shared" si="3"/>
-        <v>0.29111216730038025</v>
+        <v>0.33161904761904759</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -14859,43 +15294,43 @@
         <v>41</v>
       </c>
       <c r="B121" s="8">
-        <v>39692</v>
+        <v>39661</v>
       </c>
       <c r="C121" s="7">
-        <v>139.9</v>
+        <v>153.125</v>
       </c>
       <c r="D121" s="10">
-        <v>5.01</v>
+        <v>5.26</v>
       </c>
       <c r="E121" s="4">
         <f t="shared" si="2"/>
-        <v>501</v>
+        <v>526</v>
       </c>
       <c r="F121" s="4">
         <f t="shared" si="3"/>
-        <v>0.27924151696606786</v>
+        <v>0.29111216730038025</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B122" s="8">
-        <v>39722</v>
+        <v>39692</v>
       </c>
       <c r="C122" s="7">
-        <v>126.625</v>
+        <v>139.9</v>
       </c>
       <c r="D122" s="10">
-        <v>4.37</v>
+        <v>5.01</v>
       </c>
       <c r="E122" s="4">
         <f t="shared" si="2"/>
-        <v>437</v>
+        <v>501</v>
       </c>
       <c r="F122" s="4">
         <f t="shared" si="3"/>
-        <v>0.28975972540045769</v>
+        <v>0.27924151696606786</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -14903,21 +15338,21 @@
         <v>42</v>
       </c>
       <c r="B123" s="8">
-        <v>39753</v>
+        <v>39722</v>
       </c>
       <c r="C123" s="7">
-        <v>125.125</v>
+        <v>126.625</v>
       </c>
       <c r="D123" s="10">
-        <v>4.26</v>
+        <v>4.37</v>
       </c>
       <c r="E123" s="4">
         <f t="shared" si="2"/>
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="F123" s="4">
         <f t="shared" si="3"/>
-        <v>0.29372065727699531</v>
+        <v>0.28975972540045769</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -14925,21 +15360,21 @@
         <v>42</v>
       </c>
       <c r="B124" s="8">
-        <v>39783</v>
+        <v>39753</v>
       </c>
       <c r="C124" s="7">
-        <v>108.3</v>
+        <v>125.125</v>
       </c>
       <c r="D124" s="10">
-        <v>4.1100000000000003</v>
+        <v>4.26</v>
       </c>
       <c r="E124" s="4">
         <f t="shared" si="2"/>
-        <v>411.00000000000006</v>
+        <v>426</v>
       </c>
       <c r="F124" s="4">
         <f t="shared" si="3"/>
-        <v>0.26350364963503647</v>
+        <v>0.29372065727699531</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -14947,21 +15382,21 @@
         <v>42</v>
       </c>
       <c r="B125" s="8">
-        <v>39814</v>
+        <v>39783</v>
       </c>
       <c r="C125" s="7">
-        <v>119.625</v>
+        <v>108.3</v>
       </c>
       <c r="D125" s="10">
-        <v>4.3600000000000003</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="E125" s="4">
         <f t="shared" si="2"/>
-        <v>436.00000000000006</v>
+        <v>411.00000000000006</v>
       </c>
       <c r="F125" s="4">
         <f t="shared" si="3"/>
-        <v>0.27436926605504586</v>
+        <v>0.26350364963503647</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -14969,21 +15404,21 @@
         <v>42</v>
       </c>
       <c r="B126" s="8">
-        <v>39845</v>
+        <v>39814</v>
       </c>
       <c r="C126" s="7">
-        <v>133.125</v>
+        <v>119.625</v>
       </c>
       <c r="D126" s="10">
-        <v>3.87</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="E126" s="4">
         <f t="shared" si="2"/>
-        <v>387</v>
+        <v>436.00000000000006</v>
       </c>
       <c r="F126" s="4">
         <f t="shared" si="3"/>
-        <v>0.3439922480620155</v>
+        <v>0.27436926605504586</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -14991,21 +15426,21 @@
         <v>42</v>
       </c>
       <c r="B127" s="8">
-        <v>39873</v>
+        <v>39845</v>
       </c>
       <c r="C127" s="7">
-        <v>126.7</v>
+        <v>133.125</v>
       </c>
       <c r="D127" s="10">
-        <v>3.85</v>
+        <v>3.87</v>
       </c>
       <c r="E127" s="4">
         <f t="shared" si="2"/>
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F127" s="4">
         <f t="shared" si="3"/>
-        <v>0.3290909090909091</v>
+        <v>0.3439922480620155</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -15013,10 +15448,10 @@
         <v>42</v>
       </c>
       <c r="B128" s="8">
-        <v>39904</v>
+        <v>39873</v>
       </c>
       <c r="C128" s="7">
-        <v>130.5</v>
+        <v>126.7</v>
       </c>
       <c r="D128" s="10">
         <v>3.85</v>
@@ -15027,7 +15462,7 @@
       </c>
       <c r="F128" s="4">
         <f t="shared" si="3"/>
-        <v>0.33896103896103896</v>
+        <v>0.3290909090909091</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -15035,21 +15470,21 @@
         <v>42</v>
       </c>
       <c r="B129" s="8">
-        <v>39934</v>
+        <v>39904</v>
       </c>
       <c r="C129" s="7">
-        <v>142.5</v>
+        <v>130.5</v>
       </c>
       <c r="D129" s="10">
-        <v>3.96</v>
+        <v>3.85</v>
       </c>
       <c r="E129" s="4">
         <f t="shared" si="2"/>
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="F129" s="4">
         <f t="shared" si="3"/>
-        <v>0.35984848484848486</v>
+        <v>0.33896103896103896</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -15057,21 +15492,21 @@
         <v>42</v>
       </c>
       <c r="B130" s="8">
-        <v>39965</v>
+        <v>39934</v>
       </c>
       <c r="C130" s="7">
-        <v>148.60000000000002</v>
+        <v>142.5</v>
       </c>
       <c r="D130" s="10">
-        <v>4.01</v>
+        <v>3.96</v>
       </c>
       <c r="E130" s="4">
         <f t="shared" si="2"/>
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F130" s="4">
         <f t="shared" si="3"/>
-        <v>0.37057356608478809</v>
+        <v>0.35984848484848486</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -15079,21 +15514,21 @@
         <v>42</v>
       </c>
       <c r="B131" s="8">
-        <v>39995</v>
+        <v>39965</v>
       </c>
       <c r="C131" s="7">
-        <v>107.875</v>
+        <v>148.60000000000002</v>
       </c>
       <c r="D131" s="10">
-        <v>3.6</v>
+        <v>4.01</v>
       </c>
       <c r="E131" s="4">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="F131" s="4">
         <f t="shared" si="3"/>
-        <v>0.29965277777777777</v>
+        <v>0.37057356608478809</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -15101,21 +15536,21 @@
         <v>42</v>
       </c>
       <c r="B132" s="8">
-        <v>40026</v>
+        <v>39995</v>
       </c>
       <c r="C132" s="7">
-        <v>99.375</v>
+        <v>107.875</v>
       </c>
       <c r="D132" s="10">
-        <v>3.33</v>
+        <v>3.6</v>
       </c>
       <c r="E132" s="4">
         <f t="shared" si="2"/>
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="F132" s="4">
         <f t="shared" si="3"/>
-        <v>0.29842342342342343</v>
+        <v>0.29965277777777777</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -15123,43 +15558,43 @@
         <v>42</v>
       </c>
       <c r="B133" s="8">
-        <v>40057</v>
+        <v>40026</v>
       </c>
       <c r="C133" s="7">
-        <v>96.7</v>
+        <v>99.375</v>
       </c>
       <c r="D133" s="10">
-        <v>3.25</v>
+        <v>3.33</v>
       </c>
       <c r="E133" s="4">
         <f t="shared" si="2"/>
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="F133" s="4">
         <f t="shared" si="3"/>
-        <v>0.29753846153846153</v>
+        <v>0.29842342342342343</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B134" s="8">
-        <v>40087</v>
+        <v>40057</v>
       </c>
       <c r="C134" s="7">
-        <v>122</v>
+        <v>96.7</v>
       </c>
       <c r="D134" s="10">
-        <v>3.61</v>
+        <v>3.25</v>
       </c>
       <c r="E134" s="4">
         <f t="shared" si="2"/>
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="F134" s="4">
         <f t="shared" si="3"/>
-        <v>0.33795013850415512</v>
+        <v>0.29753846153846153</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -15167,21 +15602,21 @@
         <v>43</v>
       </c>
       <c r="B135" s="8">
-        <v>40118</v>
+        <v>40087</v>
       </c>
       <c r="C135" s="7">
-        <v>126.375</v>
+        <v>122</v>
       </c>
       <c r="D135" s="10">
-        <v>3.65</v>
+        <v>3.61</v>
       </c>
       <c r="E135" s="4">
         <f t="shared" si="2"/>
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F135" s="4">
         <f t="shared" si="3"/>
-        <v>0.34623287671232877</v>
+        <v>0.33795013850415512</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -15189,21 +15624,21 @@
         <v>43</v>
       </c>
       <c r="B136" s="8">
-        <v>40148</v>
+        <v>40118</v>
       </c>
       <c r="C136" s="7">
-        <v>127.3</v>
+        <v>126.375</v>
       </c>
       <c r="D136" s="10">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="E136" s="4">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="F136" s="4">
         <f t="shared" si="3"/>
-        <v>0.3536111111111111</v>
+        <v>0.34623287671232877</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -15211,21 +15646,21 @@
         <v>43</v>
       </c>
       <c r="B137" s="8">
-        <v>40179</v>
+        <v>40148</v>
       </c>
       <c r="C137" s="7">
-        <v>123.75</v>
+        <v>127.3</v>
       </c>
       <c r="D137" s="10">
-        <v>3.66</v>
+        <v>3.6</v>
       </c>
       <c r="E137" s="4">
         <f t="shared" si="2"/>
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F137" s="4">
         <f t="shared" si="3"/>
-        <v>0.33811475409836067</v>
+        <v>0.3536111111111111</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -15233,21 +15668,21 @@
         <v>43</v>
       </c>
       <c r="B138" s="8">
-        <v>40210</v>
+        <v>40179</v>
       </c>
       <c r="C138" s="7">
-        <v>114.625</v>
+        <v>123.75</v>
       </c>
       <c r="D138" s="10">
-        <v>3.55</v>
+        <v>3.66</v>
       </c>
       <c r="E138" s="4">
         <f t="shared" si="2"/>
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="F138" s="4">
         <f t="shared" si="3"/>
-        <v>0.32288732394366199</v>
+        <v>0.33811475409836067</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -15255,10 +15690,10 @@
         <v>43</v>
       </c>
       <c r="B139" s="8">
-        <v>40238</v>
+        <v>40210</v>
       </c>
       <c r="C139" s="7">
-        <v>107.6</v>
+        <v>114.625</v>
       </c>
       <c r="D139" s="10">
         <v>3.55</v>
@@ -15269,7 +15704,7 @@
       </c>
       <c r="F139" s="4">
         <f t="shared" si="3"/>
-        <v>0.30309859154929575</v>
+        <v>0.32288732394366199</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -15277,21 +15712,21 @@
         <v>43</v>
       </c>
       <c r="B140" s="8">
-        <v>40269</v>
+        <v>40238</v>
       </c>
       <c r="C140" s="7">
-        <v>106</v>
+        <v>107.6</v>
       </c>
       <c r="D140" s="10">
-        <v>3.41</v>
+        <v>3.55</v>
       </c>
       <c r="E140" s="4">
         <f t="shared" si="2"/>
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="F140" s="4">
         <f t="shared" si="3"/>
-        <v>0.31085043988269795</v>
+        <v>0.30309859154929575</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -15299,21 +15734,21 @@
         <v>43</v>
       </c>
       <c r="B141" s="8">
-        <v>40299</v>
+        <v>40269</v>
       </c>
       <c r="C141" s="7">
-        <v>117.875</v>
+        <v>106</v>
       </c>
       <c r="D141" s="10">
-        <v>3.48</v>
+        <v>3.41</v>
       </c>
       <c r="E141" s="4">
         <f t="shared" si="2"/>
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="F141" s="4">
         <f t="shared" si="3"/>
-        <v>0.33872126436781608</v>
+        <v>0.31085043988269795</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -15321,21 +15756,21 @@
         <v>43</v>
       </c>
       <c r="B142" s="8">
-        <v>40330</v>
+        <v>40299</v>
       </c>
       <c r="C142" s="7">
-        <v>108.3</v>
+        <v>117.875</v>
       </c>
       <c r="D142" s="10">
-        <v>3.41</v>
+        <v>3.48</v>
       </c>
       <c r="E142" s="4">
         <f t="shared" si="2"/>
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="F142" s="4">
         <f t="shared" si="3"/>
-        <v>0.31759530791788854</v>
+        <v>0.33872126436781608</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -15343,21 +15778,21 @@
         <v>43</v>
       </c>
       <c r="B143" s="8">
-        <v>40360</v>
+        <v>40330</v>
       </c>
       <c r="C143" s="7">
-        <v>108.75</v>
+        <v>108.3</v>
       </c>
       <c r="D143" s="10">
-        <v>3.49</v>
+        <v>3.41</v>
       </c>
       <c r="E143" s="4">
         <f t="shared" si="2"/>
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F143" s="4">
         <f t="shared" si="3"/>
-        <v>0.31160458452722062</v>
+        <v>0.31759530791788854</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -15365,21 +15800,21 @@
         <v>43</v>
       </c>
       <c r="B144" s="8">
-        <v>40391</v>
+        <v>40360</v>
       </c>
       <c r="C144" s="7">
-        <v>111.8</v>
+        <v>108.75</v>
       </c>
       <c r="D144" s="10">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="E144" s="4">
         <f t="shared" si="2"/>
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="F144" s="4">
         <f t="shared" si="3"/>
-        <v>0.30630136986301371</v>
+        <v>0.31160458452722062</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -15387,43 +15822,43 @@
         <v>43</v>
       </c>
       <c r="B145" s="8">
-        <v>40422</v>
+        <v>40391</v>
       </c>
       <c r="C145" s="7">
-        <v>132.875</v>
+        <v>111.8</v>
       </c>
       <c r="D145" s="10">
-        <v>4.08</v>
+        <v>3.65</v>
       </c>
       <c r="E145" s="4">
         <f t="shared" si="2"/>
-        <v>408</v>
+        <v>365</v>
       </c>
       <c r="F145" s="4">
         <f t="shared" si="3"/>
-        <v>0.32567401960784315</v>
+        <v>0.30630136986301371</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B146" s="8">
-        <v>40452</v>
+        <v>40422</v>
       </c>
       <c r="C146" s="7">
-        <v>155.375</v>
+        <v>132.875</v>
       </c>
       <c r="D146" s="10">
-        <v>4.32</v>
+        <v>4.08</v>
       </c>
       <c r="E146" s="4">
         <f t="shared" si="2"/>
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="F146" s="4">
         <f t="shared" si="3"/>
-        <v>0.35966435185185186</v>
+        <v>0.32567401960784315</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -15431,21 +15866,21 @@
         <v>44</v>
       </c>
       <c r="B147" s="8">
-        <v>40483</v>
+        <v>40452</v>
       </c>
       <c r="C147" s="7">
-        <v>166.7</v>
+        <v>155.375</v>
       </c>
       <c r="D147" s="10">
-        <v>4.55</v>
+        <v>4.32</v>
       </c>
       <c r="E147" s="4">
         <f t="shared" si="2"/>
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="F147" s="4">
         <f t="shared" si="3"/>
-        <v>0.36637362637362636</v>
+        <v>0.35966435185185186</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -15453,21 +15888,21 @@
         <v>44</v>
       </c>
       <c r="B148" s="8">
-        <v>40513</v>
+        <v>40483</v>
       </c>
       <c r="C148" s="7">
-        <v>172.25</v>
+        <v>166.7</v>
       </c>
       <c r="D148" s="10">
-        <v>4.82</v>
+        <v>4.55</v>
       </c>
       <c r="E148" s="4">
         <f t="shared" si="2"/>
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="F148" s="4">
         <f t="shared" si="3"/>
-        <v>0.35736514522821577</v>
+        <v>0.36637362637362636</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -15475,21 +15910,21 @@
         <v>44</v>
       </c>
       <c r="B149" s="8">
-        <v>40544</v>
+        <v>40513</v>
       </c>
       <c r="C149" s="7">
-        <v>180.625</v>
+        <v>172.25</v>
       </c>
       <c r="D149" s="10">
-        <v>4.9400000000000004</v>
+        <v>4.82</v>
       </c>
       <c r="E149" s="4">
         <f t="shared" si="2"/>
-        <v>494.00000000000006</v>
+        <v>482</v>
       </c>
       <c r="F149" s="4">
         <f t="shared" si="3"/>
-        <v>0.36563765182186231</v>
+        <v>0.35736514522821577</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -15497,21 +15932,21 @@
         <v>44</v>
       </c>
       <c r="B150" s="8">
-        <v>40575</v>
+        <v>40544</v>
       </c>
       <c r="C150" s="7">
-        <v>199.875</v>
+        <v>180.625</v>
       </c>
       <c r="D150" s="10">
-        <v>5.65</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="E150" s="4">
         <f t="shared" si="2"/>
-        <v>565</v>
+        <v>494.00000000000006</v>
       </c>
       <c r="F150" s="4">
         <f t="shared" si="3"/>
-        <v>0.35376106194690266</v>
+        <v>0.36563765182186231</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -15519,21 +15954,21 @@
         <v>44</v>
       </c>
       <c r="B151" s="8">
-        <v>40603</v>
+        <v>40575</v>
       </c>
       <c r="C151" s="7">
-        <v>203.7</v>
+        <v>199.875</v>
       </c>
       <c r="D151" s="10">
-        <v>5.53</v>
+        <v>5.65</v>
       </c>
       <c r="E151" s="4">
         <f t="shared" si="2"/>
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="F151" s="4">
         <f t="shared" si="3"/>
-        <v>0.3683544303797468</v>
+        <v>0.35376106194690266</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -15541,21 +15976,21 @@
         <v>44</v>
       </c>
       <c r="B152" s="8">
-        <v>40634</v>
+        <v>40603</v>
       </c>
       <c r="C152" s="7">
-        <v>214.5</v>
+        <v>203.7</v>
       </c>
       <c r="D152" s="10">
-        <v>6.36</v>
+        <v>5.53</v>
       </c>
       <c r="E152" s="4">
         <f t="shared" si="2"/>
-        <v>636</v>
+        <v>553</v>
       </c>
       <c r="F152" s="4">
         <f t="shared" si="3"/>
-        <v>0.33726415094339623</v>
+        <v>0.3683544303797468</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -15563,21 +15998,21 @@
         <v>44</v>
       </c>
       <c r="B153" s="8">
-        <v>40664</v>
+        <v>40634</v>
       </c>
       <c r="C153" s="7">
-        <v>204.8</v>
+        <v>214.5</v>
       </c>
       <c r="D153" s="10">
-        <v>6.32</v>
+        <v>6.36</v>
       </c>
       <c r="E153" s="4">
-        <f t="shared" ref="E153:E216" si="4">D153*100</f>
-        <v>632</v>
+        <f t="shared" si="2"/>
+        <v>636</v>
       </c>
       <c r="F153" s="4">
-        <f t="shared" ref="F153:F205" si="5">C153/E153</f>
-        <v>0.32405063291139241</v>
+        <f t="shared" si="3"/>
+        <v>0.33726415094339623</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -15585,21 +16020,21 @@
         <v>44</v>
       </c>
       <c r="B154" s="8">
-        <v>40695</v>
+        <v>40664</v>
       </c>
       <c r="C154" s="7">
-        <v>214.25</v>
+        <v>204.8</v>
       </c>
       <c r="D154" s="10">
-        <v>6.38</v>
+        <v>6.32</v>
       </c>
       <c r="E154" s="4">
-        <f t="shared" si="4"/>
-        <v>638</v>
+        <f t="shared" ref="E154:E217" si="4">D154*100</f>
+        <v>632</v>
       </c>
       <c r="F154" s="4">
-        <f t="shared" si="5"/>
-        <v>0.33581504702194359</v>
+        <f t="shared" ref="F154:F217" si="5">C154/E154</f>
+        <v>0.32405063291139241</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -15607,21 +16042,21 @@
         <v>44</v>
       </c>
       <c r="B155" s="8">
-        <v>40725</v>
+        <v>40695</v>
       </c>
       <c r="C155" s="7">
-        <v>208.5</v>
+        <v>214.25</v>
       </c>
       <c r="D155" s="10">
-        <v>6.33</v>
+        <v>6.38</v>
       </c>
       <c r="E155" s="4">
         <f t="shared" si="4"/>
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="F155" s="4">
         <f t="shared" si="5"/>
-        <v>0.32938388625592419</v>
+        <v>0.33581504702194359</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -15629,21 +16064,21 @@
         <v>44</v>
       </c>
       <c r="B156" s="8">
-        <v>40756</v>
+        <v>40725</v>
       </c>
       <c r="C156" s="7">
-        <v>207</v>
+        <v>208.5</v>
       </c>
       <c r="D156" s="10">
-        <v>6.88</v>
+        <v>6.33</v>
       </c>
       <c r="E156" s="4">
         <f t="shared" si="4"/>
-        <v>688</v>
+        <v>633</v>
       </c>
       <c r="F156" s="4">
         <f t="shared" si="5"/>
-        <v>0.30087209302325579</v>
+        <v>0.32938388625592419</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -15651,43 +16086,43 @@
         <v>44</v>
       </c>
       <c r="B157" s="8">
-        <v>40787</v>
+        <v>40756</v>
       </c>
       <c r="C157" s="7">
-        <v>207.125</v>
+        <v>207</v>
       </c>
       <c r="D157" s="10">
-        <v>6.38</v>
+        <v>6.88</v>
       </c>
       <c r="E157" s="4">
         <f t="shared" si="4"/>
-        <v>638</v>
+        <v>688</v>
       </c>
       <c r="F157" s="4">
         <f t="shared" si="5"/>
-        <v>0.32464733542319751</v>
+        <v>0.30087209302325579</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B158" s="8">
-        <v>40817</v>
+        <v>40787</v>
       </c>
       <c r="C158" s="7">
-        <v>207.5</v>
+        <v>207.125</v>
       </c>
       <c r="D158" s="10">
-        <v>5.73</v>
+        <v>6.38</v>
       </c>
       <c r="E158" s="4">
         <f t="shared" si="4"/>
-        <v>573</v>
+        <v>638</v>
       </c>
       <c r="F158" s="4">
         <f t="shared" si="5"/>
-        <v>0.36212914485165792</v>
+        <v>0.32464733542319751</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -15695,21 +16130,21 @@
         <v>45</v>
       </c>
       <c r="B159" s="8">
-        <v>40848</v>
+        <v>40817</v>
       </c>
       <c r="C159" s="7">
-        <v>216.1</v>
+        <v>207.5</v>
       </c>
       <c r="D159" s="10">
-        <v>5.83</v>
+        <v>5.73</v>
       </c>
       <c r="E159" s="4">
         <f t="shared" si="4"/>
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="F159" s="4">
         <f t="shared" si="5"/>
-        <v>0.3706689536878216</v>
+        <v>0.36212914485165792</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -15717,21 +16152,21 @@
         <v>45</v>
       </c>
       <c r="B160" s="8">
-        <v>40878</v>
+        <v>40848</v>
       </c>
       <c r="C160" s="7">
-        <v>192.25</v>
+        <v>216.1</v>
       </c>
       <c r="D160" s="10">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="E160" s="4">
         <f t="shared" si="4"/>
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F160" s="4">
         <f t="shared" si="5"/>
-        <v>0.32807167235494883</v>
+        <v>0.3706689536878216</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -15739,21 +16174,21 @@
         <v>45</v>
       </c>
       <c r="B161" s="8">
-        <v>40909</v>
+        <v>40878</v>
       </c>
       <c r="C161" s="7">
-        <v>194.2</v>
+        <v>192.25</v>
       </c>
       <c r="D161" s="10">
-        <v>6.07</v>
+        <v>5.86</v>
       </c>
       <c r="E161" s="4">
         <f t="shared" si="4"/>
-        <v>607</v>
+        <v>586</v>
       </c>
       <c r="F161" s="4">
         <f t="shared" si="5"/>
-        <v>0.31993410214168039</v>
+        <v>0.32807167235494883</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -15761,21 +16196,21 @@
         <v>45</v>
       </c>
       <c r="B162" s="8">
-        <v>40940</v>
+        <v>40909</v>
       </c>
       <c r="C162" s="7">
-        <v>203</v>
+        <v>194.2</v>
       </c>
       <c r="D162" s="10">
-        <v>6.28</v>
+        <v>6.07</v>
       </c>
       <c r="E162" s="4">
         <f t="shared" si="4"/>
-        <v>628</v>
+        <v>607</v>
       </c>
       <c r="F162" s="4">
         <f t="shared" si="5"/>
-        <v>0.32324840764331209</v>
+        <v>0.31993410214168039</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -15783,21 +16218,21 @@
         <v>45</v>
       </c>
       <c r="B163" s="8">
-        <v>40969</v>
+        <v>40940</v>
       </c>
       <c r="C163" s="7">
-        <v>213.875</v>
+        <v>203</v>
       </c>
       <c r="D163" s="10">
-        <v>6.35</v>
+        <v>6.28</v>
       </c>
       <c r="E163" s="4">
         <f t="shared" si="4"/>
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="F163" s="4">
         <f t="shared" si="5"/>
-        <v>0.33681102362204723</v>
+        <v>0.32324840764331209</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -15805,21 +16240,21 @@
         <v>45</v>
       </c>
       <c r="B164" s="8">
-        <v>41000</v>
+        <v>40969</v>
       </c>
       <c r="C164" s="7">
         <v>213.875</v>
       </c>
       <c r="D164" s="10">
-        <v>6.34</v>
+        <v>6.35</v>
       </c>
       <c r="E164" s="4">
         <f t="shared" si="4"/>
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F164" s="4">
         <f t="shared" si="5"/>
-        <v>0.33734227129337541</v>
+        <v>0.33681102362204723</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -15827,10 +16262,10 @@
         <v>45</v>
       </c>
       <c r="B165" s="8">
-        <v>41030</v>
+        <v>41000</v>
       </c>
       <c r="C165" s="7">
-        <v>223.4</v>
+        <v>213.875</v>
       </c>
       <c r="D165" s="10">
         <v>6.34</v>
@@ -15841,7 +16276,7 @@
       </c>
       <c r="F165" s="4">
         <f t="shared" si="5"/>
-        <v>0.3523659305993691</v>
+        <v>0.33734227129337541</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -15849,21 +16284,21 @@
         <v>45</v>
       </c>
       <c r="B166" s="8">
-        <v>41061</v>
+        <v>41030</v>
       </c>
       <c r="C166" s="7">
-        <v>220.625</v>
+        <v>223.4</v>
       </c>
       <c r="D166" s="10">
-        <v>6.37</v>
+        <v>6.34</v>
       </c>
       <c r="E166" s="4">
         <f t="shared" si="4"/>
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F166" s="4">
         <f t="shared" si="5"/>
-        <v>0.34635007849293564</v>
+        <v>0.3523659305993691</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -15871,21 +16306,21 @@
         <v>45</v>
       </c>
       <c r="B167" s="8">
-        <v>41091</v>
+        <v>41061</v>
       </c>
       <c r="C167" s="7">
-        <v>272.89999999999998</v>
+        <v>220.625</v>
       </c>
       <c r="D167" s="10">
-        <v>7.14</v>
+        <v>6.37</v>
       </c>
       <c r="E167" s="4">
         <f t="shared" si="4"/>
-        <v>714</v>
+        <v>637</v>
       </c>
       <c r="F167" s="4">
         <f t="shared" si="5"/>
-        <v>0.3822128851540616</v>
+        <v>0.34635007849293564</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -15893,21 +16328,21 @@
         <v>45</v>
       </c>
       <c r="B168" s="8">
-        <v>41122</v>
+        <v>41091</v>
       </c>
       <c r="C168" s="7">
-        <v>301.625</v>
+        <v>272.89999999999998</v>
       </c>
       <c r="D168" s="10">
-        <v>7.63</v>
+        <v>7.14</v>
       </c>
       <c r="E168" s="4">
         <f t="shared" si="4"/>
-        <v>763</v>
+        <v>714</v>
       </c>
       <c r="F168" s="4">
         <f t="shared" si="5"/>
-        <v>0.3953145478374836</v>
+        <v>0.3822128851540616</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -15915,43 +16350,43 @@
         <v>45</v>
       </c>
       <c r="B169" s="8">
-        <v>41153</v>
+        <v>41122</v>
       </c>
       <c r="C169" s="7">
-        <v>293.375</v>
+        <v>301.625</v>
       </c>
       <c r="D169" s="10">
-        <v>6.89</v>
+        <v>7.63</v>
       </c>
       <c r="E169" s="4">
         <f t="shared" si="4"/>
-        <v>689</v>
+        <v>763</v>
       </c>
       <c r="F169" s="4">
         <f t="shared" si="5"/>
-        <v>0.42579825834542817</v>
+        <v>0.3953145478374836</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B170" s="8">
-        <v>41183</v>
+        <v>41153</v>
       </c>
       <c r="C170" s="7">
-        <v>278</v>
+        <v>293.375</v>
       </c>
       <c r="D170" s="10">
-        <v>6.78</v>
+        <v>6.89</v>
       </c>
       <c r="E170" s="4">
         <f t="shared" si="4"/>
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="F170" s="4">
         <f t="shared" si="5"/>
-        <v>0.41002949852507375</v>
+        <v>0.42579825834542817</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -15959,21 +16394,21 @@
         <v>46</v>
       </c>
       <c r="B171" s="8">
-        <v>41214</v>
+        <v>41183</v>
       </c>
       <c r="C171" s="7">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="D171" s="10">
-        <v>7.01</v>
+        <v>6.78</v>
       </c>
       <c r="E171" s="4">
         <f t="shared" si="4"/>
-        <v>701</v>
+        <v>678</v>
       </c>
       <c r="F171" s="4">
         <f t="shared" si="5"/>
-        <v>0.369472182596291</v>
+        <v>0.41002949852507375</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -15981,21 +16416,21 @@
         <v>46</v>
       </c>
       <c r="B172" s="8">
-        <v>41244</v>
+        <v>41214</v>
       </c>
       <c r="C172" s="7">
-        <v>261.66499999999996</v>
+        <v>259</v>
       </c>
       <c r="D172" s="10">
-        <v>6.87</v>
+        <v>7.01</v>
       </c>
       <c r="E172" s="4">
         <f t="shared" si="4"/>
-        <v>687</v>
+        <v>701</v>
       </c>
       <c r="F172" s="4">
         <f t="shared" si="5"/>
-        <v>0.38088064046579323</v>
+        <v>0.369472182596291</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -16003,21 +16438,21 @@
         <v>46</v>
       </c>
       <c r="B173" s="8">
-        <v>41275</v>
+        <v>41244</v>
       </c>
       <c r="C173" s="7">
-        <v>264.89999999999998</v>
+        <v>261.66499999999996</v>
       </c>
       <c r="D173" s="10">
-        <v>6.96</v>
+        <v>6.87</v>
       </c>
       <c r="E173" s="4">
         <f t="shared" si="4"/>
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="F173" s="4">
         <f t="shared" si="5"/>
-        <v>0.38060344827586201</v>
+        <v>0.38088064046579323</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -16025,21 +16460,21 @@
         <v>46</v>
       </c>
       <c r="B174" s="8">
-        <v>41306</v>
+        <v>41275</v>
       </c>
       <c r="C174" s="7">
-        <v>271.125</v>
+        <v>264.89999999999998</v>
       </c>
       <c r="D174" s="10">
-        <v>7.04</v>
+        <v>6.96</v>
       </c>
       <c r="E174" s="4">
         <f t="shared" si="4"/>
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="F174" s="4">
         <f t="shared" si="5"/>
-        <v>0.38512073863636365</v>
+        <v>0.38060344827586201</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -16047,21 +16482,21 @@
         <v>46</v>
       </c>
       <c r="B175" s="8">
-        <v>41334</v>
+        <v>41306</v>
       </c>
       <c r="C175" s="7">
-        <v>270.875</v>
+        <v>271.125</v>
       </c>
       <c r="D175" s="10">
-        <v>7.13</v>
+        <v>7.04</v>
       </c>
       <c r="E175" s="4">
         <f t="shared" si="4"/>
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="F175" s="4">
         <f t="shared" si="5"/>
-        <v>0.37990883590462832</v>
+        <v>0.38512073863636365</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -16069,21 +16504,21 @@
         <v>46</v>
       </c>
       <c r="B176" s="8">
-        <v>41365</v>
+        <v>41334</v>
       </c>
       <c r="C176" s="7">
-        <v>242.4</v>
+        <v>270.875</v>
       </c>
       <c r="D176" s="10">
-        <v>6.97</v>
+        <v>7.13</v>
       </c>
       <c r="E176" s="4">
         <f t="shared" si="4"/>
-        <v>697</v>
+        <v>713</v>
       </c>
       <c r="F176" s="4">
         <f t="shared" si="5"/>
-        <v>0.34777618364418939</v>
+        <v>0.37990883590462832</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -16091,10 +16526,10 @@
         <v>46</v>
       </c>
       <c r="B177" s="8">
-        <v>41395</v>
+        <v>41365</v>
       </c>
       <c r="C177" s="7">
-        <v>229</v>
+        <v>242.4</v>
       </c>
       <c r="D177" s="10">
         <v>6.97</v>
@@ -16105,7 +16540,7 @@
       </c>
       <c r="F177" s="4">
         <f t="shared" si="5"/>
-        <v>0.32855093256814921</v>
+        <v>0.34777618364418939</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -16113,10 +16548,10 @@
         <v>46</v>
       </c>
       <c r="B178" s="8">
-        <v>41426</v>
+        <v>41395</v>
       </c>
       <c r="C178" s="7">
-        <v>235.875</v>
+        <v>229</v>
       </c>
       <c r="D178" s="10">
         <v>6.97</v>
@@ -16127,7 +16562,7 @@
       </c>
       <c r="F178" s="4">
         <f t="shared" si="5"/>
-        <v>0.33841463414634149</v>
+        <v>0.32855093256814921</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -16135,21 +16570,21 @@
         <v>46</v>
       </c>
       <c r="B179" s="8">
-        <v>41456</v>
+        <v>41426</v>
       </c>
       <c r="C179" s="7">
-        <v>240.2</v>
+        <v>235.875</v>
       </c>
       <c r="D179" s="10">
-        <v>6.79</v>
+        <v>6.97</v>
       </c>
       <c r="E179" s="4">
         <f t="shared" si="4"/>
-        <v>679</v>
+        <v>697</v>
       </c>
       <c r="F179" s="4">
         <f t="shared" si="5"/>
-        <v>0.35375552282768774</v>
+        <v>0.33841463414634149</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -16157,21 +16592,21 @@
         <v>46</v>
       </c>
       <c r="B180" s="8">
-        <v>41487</v>
+        <v>41456</v>
       </c>
       <c r="C180" s="7">
-        <v>232.125</v>
+        <v>240.2</v>
       </c>
       <c r="D180" s="10">
-        <v>6.21</v>
+        <v>6.79</v>
       </c>
       <c r="E180" s="4">
         <f t="shared" si="4"/>
-        <v>621</v>
+        <v>679</v>
       </c>
       <c r="F180" s="4">
         <f t="shared" si="5"/>
-        <v>0.37379227053140096</v>
+        <v>0.35375552282768774</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -16179,43 +16614,43 @@
         <v>46</v>
       </c>
       <c r="B181" s="8">
-        <v>41518</v>
+        <v>41487</v>
       </c>
       <c r="C181" s="7">
-        <v>230.125</v>
+        <v>232.125</v>
       </c>
       <c r="D181" s="10">
-        <v>5.4</v>
+        <v>6.21</v>
       </c>
       <c r="E181" s="4">
         <f t="shared" si="4"/>
-        <v>540</v>
+        <v>621</v>
       </c>
       <c r="F181" s="4">
         <f t="shared" si="5"/>
-        <v>0.42615740740740743</v>
+        <v>0.37379227053140096</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B182" s="8">
-        <v>41548</v>
+        <v>41518</v>
       </c>
       <c r="C182" s="7">
-        <v>216.5</v>
+        <v>230.125</v>
       </c>
       <c r="D182" s="10">
-        <v>4.63</v>
+        <v>5.4</v>
       </c>
       <c r="E182" s="4">
         <f t="shared" si="4"/>
-        <v>463</v>
+        <v>540</v>
       </c>
       <c r="F182" s="4">
         <f t="shared" si="5"/>
-        <v>0.46760259179265656</v>
+        <v>0.42615740740740743</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -16223,21 +16658,21 @@
         <v>47</v>
       </c>
       <c r="B183" s="8">
-        <v>41579</v>
+        <v>41548</v>
       </c>
       <c r="C183" s="7">
-        <v>217.125</v>
+        <v>216.5</v>
       </c>
       <c r="D183" s="10">
-        <v>4.37</v>
+        <v>4.63</v>
       </c>
       <c r="E183" s="4">
         <f t="shared" si="4"/>
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="F183" s="4">
         <f t="shared" si="5"/>
-        <v>0.49685354691075517</v>
+        <v>0.46760259179265656</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -16245,21 +16680,21 @@
         <v>47</v>
       </c>
       <c r="B184" s="8">
-        <v>41609</v>
+        <v>41579</v>
       </c>
       <c r="C184" s="7">
-        <v>220.5</v>
+        <v>217.125</v>
       </c>
       <c r="D184" s="10">
-        <v>4.41</v>
+        <v>4.37</v>
       </c>
       <c r="E184" s="4">
         <f t="shared" si="4"/>
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F184" s="4">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0.49685354691075517</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -16267,21 +16702,21 @@
         <v>47</v>
       </c>
       <c r="B185" s="8">
-        <v>41640</v>
+        <v>41609</v>
       </c>
       <c r="C185" s="7">
-        <v>200</v>
+        <v>220.5</v>
       </c>
       <c r="D185" s="10">
-        <v>4.42</v>
+        <v>4.41</v>
       </c>
       <c r="E185" s="4">
         <f t="shared" si="4"/>
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F185" s="4">
         <f t="shared" si="5"/>
-        <v>0.45248868778280543</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -16289,21 +16724,21 @@
         <v>47</v>
       </c>
       <c r="B186" s="8">
-        <v>41671</v>
+        <v>41640</v>
       </c>
       <c r="C186" s="7">
-        <v>214.375</v>
+        <v>200</v>
       </c>
       <c r="D186" s="10">
-        <v>4.3499999999999996</v>
+        <v>4.42</v>
       </c>
       <c r="E186" s="4">
         <f t="shared" si="4"/>
-        <v>434.99999999999994</v>
+        <v>442</v>
       </c>
       <c r="F186" s="4">
         <f t="shared" si="5"/>
-        <v>0.49281609195402304</v>
+        <v>0.45248868778280543</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -16311,21 +16746,21 @@
         <v>47</v>
       </c>
       <c r="B187" s="8">
-        <v>41699</v>
+        <v>41671</v>
       </c>
       <c r="C187" s="7">
-        <v>245</v>
+        <v>214.375</v>
       </c>
       <c r="D187" s="10">
-        <v>4.5199999999999996</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="E187" s="4">
         <f t="shared" si="4"/>
-        <v>451.99999999999994</v>
+        <v>434.99999999999994</v>
       </c>
       <c r="F187" s="4">
         <f t="shared" si="5"/>
-        <v>0.54203539823008862</v>
+        <v>0.49281609195402304</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -16333,21 +16768,21 @@
         <v>47</v>
       </c>
       <c r="B188" s="8">
-        <v>41730</v>
+        <v>41699</v>
       </c>
       <c r="C188" s="7">
-        <v>243.5</v>
+        <v>245</v>
       </c>
       <c r="D188" s="10">
-        <v>4.71</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="E188" s="4">
         <f t="shared" si="4"/>
-        <v>471</v>
+        <v>451.99999999999994</v>
       </c>
       <c r="F188" s="4">
         <f t="shared" si="5"/>
-        <v>0.51698513800424628</v>
+        <v>0.54203539823008862</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -16355,10 +16790,10 @@
         <v>47</v>
       </c>
       <c r="B189" s="8">
-        <v>41760</v>
+        <v>41730</v>
       </c>
       <c r="C189" s="7">
-        <v>222.75</v>
+        <v>243.5</v>
       </c>
       <c r="D189" s="10">
         <v>4.71</v>
@@ -16369,7 +16804,7 @@
       </c>
       <c r="F189" s="4">
         <f t="shared" si="5"/>
-        <v>0.47292993630573249</v>
+        <v>0.51698513800424628</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -16377,21 +16812,21 @@
         <v>47</v>
       </c>
       <c r="B190" s="8">
-        <v>41791</v>
+        <v>41760</v>
       </c>
       <c r="C190" s="7">
-        <v>184.5</v>
+        <v>222.75</v>
       </c>
       <c r="D190" s="10">
-        <v>4.5</v>
+        <v>4.71</v>
       </c>
       <c r="E190" s="4">
         <f t="shared" si="4"/>
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="F190" s="4">
         <f t="shared" si="5"/>
-        <v>0.41</v>
+        <v>0.47292993630573249</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -16399,21 +16834,21 @@
         <v>47</v>
       </c>
       <c r="B191" s="8">
-        <v>41821</v>
+        <v>41791</v>
       </c>
       <c r="C191" s="7">
-        <v>148</v>
+        <v>184.5</v>
       </c>
       <c r="D191" s="10">
-        <v>4.0599999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="E191" s="4">
         <f t="shared" si="4"/>
-        <v>405.99999999999994</v>
+        <v>450</v>
       </c>
       <c r="F191" s="4">
         <f t="shared" si="5"/>
-        <v>0.36453201970443355</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -16421,21 +16856,21 @@
         <v>47</v>
       </c>
       <c r="B192" s="8">
-        <v>41852</v>
+        <v>41821</v>
       </c>
       <c r="C192" s="7">
-        <v>116.875</v>
+        <v>148</v>
       </c>
       <c r="D192" s="10">
-        <v>3.63</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="E192" s="4">
         <f t="shared" si="4"/>
-        <v>363</v>
+        <v>405.99999999999994</v>
       </c>
       <c r="F192" s="4">
         <f t="shared" si="5"/>
-        <v>0.32196969696969696</v>
+        <v>0.36453201970443355</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -16443,43 +16878,43 @@
         <v>47</v>
       </c>
       <c r="B193" s="8">
-        <v>41883</v>
+        <v>41852</v>
       </c>
       <c r="C193" s="7">
-        <v>123</v>
+        <v>116.875</v>
       </c>
       <c r="D193" s="10">
-        <v>3.49</v>
+        <v>3.63</v>
       </c>
       <c r="E193" s="4">
         <f t="shared" si="4"/>
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="F193" s="4">
         <f t="shared" si="5"/>
-        <v>0.3524355300859599</v>
+        <v>0.32196969696969696</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B194" s="8">
-        <v>41913</v>
+        <v>41883</v>
       </c>
       <c r="C194" s="7">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="D194" s="10">
-        <v>3.57</v>
+        <v>3.49</v>
       </c>
       <c r="E194" s="4">
         <f t="shared" si="4"/>
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F194" s="4">
         <f t="shared" si="5"/>
-        <v>0.26890756302521007</v>
+        <v>0.3524355300859599</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -16487,21 +16922,21 @@
         <v>48</v>
       </c>
       <c r="B195" s="8">
-        <v>41944</v>
+        <v>41913</v>
       </c>
       <c r="C195" s="7">
-        <v>113.125</v>
+        <v>96</v>
       </c>
       <c r="D195" s="10">
-        <v>3.6</v>
+        <v>3.57</v>
       </c>
       <c r="E195" s="4">
         <f t="shared" si="4"/>
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F195" s="4">
         <f t="shared" si="5"/>
-        <v>0.3142361111111111</v>
+        <v>0.26890756302521007</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -16509,21 +16944,21 @@
         <v>48</v>
       </c>
       <c r="B196" s="8">
-        <v>41974</v>
+        <v>41944</v>
       </c>
       <c r="C196" s="7">
-        <v>159.30000000000001</v>
+        <v>113.125</v>
       </c>
       <c r="D196" s="10">
-        <v>3.79</v>
+        <v>3.6</v>
       </c>
       <c r="E196" s="4">
         <f t="shared" si="4"/>
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="F196" s="4">
         <f t="shared" si="5"/>
-        <v>0.42031662269129288</v>
+        <v>0.3142361111111111</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -16531,21 +16966,21 @@
         <v>48</v>
       </c>
       <c r="B197" s="8">
-        <v>42005</v>
+        <v>41974</v>
       </c>
       <c r="C197" s="7">
-        <v>186.5</v>
+        <v>159.30000000000001</v>
       </c>
       <c r="D197" s="10">
-        <v>3.82</v>
+        <v>3.79</v>
       </c>
       <c r="E197" s="4">
         <f t="shared" si="4"/>
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F197" s="4">
         <f t="shared" si="5"/>
-        <v>0.48821989528795812</v>
+        <v>0.42031662269129288</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -16553,21 +16988,21 @@
         <v>48</v>
       </c>
       <c r="B198" s="8">
-        <v>42036</v>
+        <v>42005</v>
       </c>
       <c r="C198" s="7">
-        <v>187.125</v>
+        <v>186.5</v>
       </c>
       <c r="D198" s="10">
-        <v>3.79</v>
+        <v>3.82</v>
       </c>
       <c r="E198" s="4">
         <f t="shared" si="4"/>
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F198" s="4">
         <f t="shared" si="5"/>
-        <v>0.4937335092348285</v>
+        <v>0.48821989528795812</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -16575,21 +17010,21 @@
         <v>48</v>
       </c>
       <c r="B199" s="8">
-        <v>42064</v>
+        <v>42036</v>
       </c>
       <c r="C199" s="7">
-        <v>189.5</v>
+        <v>187.125</v>
       </c>
       <c r="D199" s="10">
-        <v>3.81</v>
+        <v>3.79</v>
       </c>
       <c r="E199" s="4">
         <f t="shared" si="4"/>
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F199" s="4">
         <f t="shared" si="5"/>
-        <v>0.49737532808398949</v>
+        <v>0.4937335092348285</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -16597,21 +17032,21 @@
         <v>48</v>
       </c>
       <c r="B200" s="8">
-        <v>42095</v>
+        <v>42064</v>
       </c>
       <c r="C200" s="7">
-        <v>191</v>
+        <v>189.5</v>
       </c>
       <c r="D200" s="10">
-        <v>3.75</v>
+        <v>3.81</v>
       </c>
       <c r="E200" s="4">
         <f t="shared" si="4"/>
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F200" s="4">
         <f t="shared" si="5"/>
-        <v>0.5093333333333333</v>
+        <v>0.49737532808398949</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -16619,21 +17054,21 @@
         <v>48</v>
       </c>
       <c r="B201" s="8">
-        <v>42125</v>
+        <v>42095</v>
       </c>
       <c r="C201" s="7">
-        <v>178.5</v>
+        <v>191</v>
       </c>
       <c r="D201" s="10">
-        <v>3.64</v>
+        <v>3.75</v>
       </c>
       <c r="E201" s="4">
         <f t="shared" si="4"/>
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="F201" s="4">
         <f t="shared" si="5"/>
-        <v>0.49038461538461536</v>
+        <v>0.5093333333333333</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -16641,21 +17076,21 @@
         <v>48</v>
       </c>
       <c r="B202" s="8">
-        <v>42156</v>
+        <v>42125</v>
       </c>
       <c r="C202" s="7">
-        <v>157.5</v>
+        <v>178.5</v>
       </c>
       <c r="D202" s="10">
-        <v>3.59</v>
+        <v>3.64</v>
       </c>
       <c r="E202" s="4">
         <f t="shared" si="4"/>
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="F202" s="4">
         <f t="shared" si="5"/>
-        <v>0.43871866295264622</v>
+        <v>0.49038461538461536</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -16663,21 +17098,21 @@
         <v>48</v>
       </c>
       <c r="B203" s="8">
-        <v>42186</v>
+        <v>42156</v>
       </c>
       <c r="C203" s="7">
-        <v>153.5</v>
+        <v>157.5</v>
       </c>
       <c r="D203" s="10">
-        <v>3.8</v>
+        <v>3.59</v>
       </c>
       <c r="E203" s="4">
         <f t="shared" si="4"/>
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="F203" s="4">
         <f t="shared" si="5"/>
-        <v>0.40394736842105261</v>
+        <v>0.43871866295264622</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -16685,21 +17120,21 @@
         <v>48</v>
       </c>
       <c r="B204" s="8">
-        <v>42217</v>
+        <v>42186</v>
       </c>
       <c r="C204" s="7">
-        <v>115.13</v>
+        <v>153.5</v>
       </c>
       <c r="D204" s="10">
-        <v>3.68</v>
+        <v>3.8</v>
       </c>
       <c r="E204" s="4">
         <f t="shared" si="4"/>
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="F204" s="4">
         <f t="shared" si="5"/>
-        <v>0.31285326086956522</v>
+        <v>0.40394736842105261</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -16707,10 +17142,10 @@
         <v>48</v>
       </c>
       <c r="B205" s="8">
-        <v>42248</v>
+        <v>42217</v>
       </c>
       <c r="C205" s="7">
-        <v>139.30000000000001</v>
+        <v>115.13</v>
       </c>
       <c r="D205" s="10">
         <v>3.68</v>
@@ -16721,180 +17156,301 @@
       </c>
       <c r="F205" s="4">
         <f t="shared" si="5"/>
-        <v>0.3785326086956522</v>
+        <v>0.31285326086956522</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B206" s="8">
-        <v>42278</v>
+        <v>42248</v>
       </c>
       <c r="C206" s="7">
-        <v>123.13</v>
+        <v>139.30000000000001</v>
+      </c>
+      <c r="D206" s="10">
+        <v>3.68</v>
       </c>
       <c r="E206" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F206" s="4"/>
+        <v>368</v>
+      </c>
+      <c r="F206" s="4">
+        <f t="shared" si="5"/>
+        <v>0.3785326086956522</v>
+      </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B207" s="8">
-        <v>42309</v>
+        <v>42278</v>
+      </c>
+      <c r="C207" s="7">
+        <v>123.13</v>
+      </c>
+      <c r="D207">
+        <v>3.67</v>
       </c>
       <c r="E207" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F207" s="4"/>
+        <v>367</v>
+      </c>
+      <c r="F207" s="4">
+        <f t="shared" si="5"/>
+        <v>0.33550408719346048</v>
+      </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B208" s="8">
-        <v>42339</v>
+        <v>42309</v>
+      </c>
+      <c r="C208">
+        <v>132.63</v>
+      </c>
+      <c r="D208">
+        <v>3.59</v>
       </c>
       <c r="E208" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F208" s="4"/>
+        <v>359</v>
+      </c>
+      <c r="F208" s="4">
+        <f t="shared" si="5"/>
+        <v>0.36944289693593313</v>
+      </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B209" s="8">
-        <v>42370</v>
+        <v>42339</v>
+      </c>
+      <c r="C209">
+        <v>133.13</v>
+      </c>
+      <c r="D209">
+        <v>3.65</v>
       </c>
       <c r="E209" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F209" s="4"/>
+        <v>365</v>
+      </c>
+      <c r="F209" s="4">
+        <f t="shared" si="5"/>
+        <v>0.36473972602739724</v>
+      </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B210" s="8">
-        <v>42401</v>
+        <v>42370</v>
+      </c>
+      <c r="C210">
+        <v>132.5</v>
+      </c>
+      <c r="D210">
+        <v>3.66</v>
       </c>
       <c r="E210" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F210" s="4"/>
+        <v>366</v>
+      </c>
+      <c r="F210" s="4">
+        <f t="shared" si="5"/>
+        <v>0.36202185792349728</v>
+      </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B211" s="8">
-        <v>42430</v>
+        <v>42401</v>
+      </c>
+      <c r="C211">
+        <v>136.625</v>
+      </c>
+      <c r="D211">
+        <v>3.58</v>
       </c>
       <c r="E211" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F211" s="4"/>
+        <v>358</v>
+      </c>
+      <c r="F211" s="4">
+        <f t="shared" si="5"/>
+        <v>0.38163407821229051</v>
+      </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B212" s="8">
-        <v>42461</v>
+        <v>42430</v>
+      </c>
+      <c r="C212">
+        <v>134.5</v>
+      </c>
+      <c r="D212">
+        <v>3.56</v>
       </c>
       <c r="E212" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F212" s="4"/>
+        <v>356</v>
+      </c>
+      <c r="F212" s="4">
+        <f t="shared" si="5"/>
+        <v>0.37780898876404495</v>
+      </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B213" s="8">
-        <v>42491</v>
+        <v>42461</v>
+      </c>
+      <c r="C213">
+        <v>122.38</v>
+      </c>
+      <c r="D213">
+        <v>3.56</v>
       </c>
       <c r="E213" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F213" s="4"/>
+        <v>356</v>
+      </c>
+      <c r="F213" s="4">
+        <f t="shared" si="5"/>
+        <v>0.34376404494382024</v>
+      </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B214" s="8">
-        <v>42522</v>
+        <v>42491</v>
+      </c>
+      <c r="C214">
+        <v>141.10000000000002</v>
+      </c>
+      <c r="D214">
+        <v>3.68</v>
       </c>
       <c r="E214" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F214" s="4"/>
+        <v>368</v>
+      </c>
+      <c r="F214" s="4">
+        <f t="shared" si="5"/>
+        <v>0.38342391304347834</v>
+      </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B215" s="8">
-        <v>42552</v>
+        <v>42522</v>
+      </c>
+      <c r="C215">
+        <v>170.5</v>
+      </c>
+      <c r="D215">
+        <v>3.82</v>
       </c>
       <c r="E215" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F215" s="4"/>
+        <v>382</v>
+      </c>
+      <c r="F215" s="4">
+        <f t="shared" si="5"/>
+        <v>0.44633507853403143</v>
+      </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B216" s="8">
-        <v>42583</v>
+        <v>42552</v>
+      </c>
+      <c r="C216">
+        <v>149.38</v>
+      </c>
+      <c r="D216">
+        <v>3.6</v>
       </c>
       <c r="E216" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F216" s="4"/>
+        <v>360</v>
+      </c>
+      <c r="F216" s="4">
+        <f t="shared" si="5"/>
+        <v>0.41494444444444445</v>
+      </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B217" s="8">
-        <v>42614</v>
+        <v>42583</v>
+      </c>
+      <c r="C217">
+        <v>130.9</v>
+      </c>
+      <c r="D217">
+        <v>3.21</v>
       </c>
       <c r="E217" s="4">
-        <f t="shared" ref="E217:E218" si="6">D217*100</f>
-        <v>0</v>
-      </c>
-      <c r="F217" s="4"/>
+        <f t="shared" si="4"/>
+        <v>321</v>
+      </c>
+      <c r="F217" s="4">
+        <f t="shared" si="5"/>
+        <v>0.40778816199376949</v>
+      </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B218" s="8">
+        <v>42614</v>
+      </c>
+      <c r="C218">
+        <v>127.75</v>
+      </c>
+      <c r="E218" s="4">
+        <f t="shared" ref="E218:E219" si="6">D218*100</f>
+        <v>0</v>
+      </c>
+      <c r="F218" s="4"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B219" s="8">
         <v>42644</v>
       </c>
-      <c r="E218" s="4">
+      <c r="E219" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F218" s="4"/>
+      <c r="F219" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -16911,47 +17467,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O138"/>
+  <dimension ref="A1:O146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
     <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
         <v>65</v>
-      </c>
-      <c r="D2" t="s">
-        <v>66</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -20734,9 +21290,21 @@
       <c r="O132" s="22"/>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
+      <c r="A133" s="15">
+        <v>42323</v>
+      </c>
+      <c r="B133">
+        <v>1.5069999999999999</v>
+      </c>
+      <c r="C133" s="4">
+        <v>1.4250000000000007</v>
+      </c>
+      <c r="D133" s="4">
+        <v>116.05</v>
+      </c>
+      <c r="E133" s="4">
+        <v>3.4855312500000002</v>
+      </c>
       <c r="F133" s="23"/>
       <c r="G133" s="23"/>
       <c r="H133" s="17"/>
@@ -20749,9 +21317,21 @@
       <c r="O133" s="22"/>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
+      <c r="A134" s="15">
+        <v>42353</v>
+      </c>
+      <c r="B134">
+        <v>1.647</v>
+      </c>
+      <c r="C134" s="4">
+        <v>1.3475000000000001</v>
+      </c>
+      <c r="D134" s="4">
+        <v>120.23863636363636</v>
+      </c>
+      <c r="E134" s="4">
+        <v>3.5268181818181814</v>
+      </c>
       <c r="F134" s="23"/>
       <c r="G134" s="23"/>
       <c r="H134" s="17"/>
@@ -20764,9 +21344,21 @@
       <c r="O134" s="22"/>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
+      <c r="A135" s="15">
+        <v>42384</v>
+      </c>
+      <c r="B135">
+        <v>1.32</v>
+      </c>
+      <c r="C135" s="4">
+        <v>1.2348157845798291</v>
+      </c>
+      <c r="D135" s="4">
+        <v>121.73684210526316</v>
+      </c>
+      <c r="E135" s="4">
+        <v>3.4529276250538077</v>
+      </c>
       <c r="F135" s="23"/>
       <c r="G135" s="23"/>
       <c r="H135" s="17"/>
@@ -20779,6 +21371,21 @@
       <c r="O135" s="22"/>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A136" s="15">
+        <v>42415</v>
+      </c>
+      <c r="B136">
+        <v>0.97</v>
+      </c>
+      <c r="C136">
+        <v>1.3037500083446503</v>
+      </c>
+      <c r="D136">
+        <v>122.6</v>
+      </c>
+      <c r="E136">
+        <v>3.4756249994039536</v>
+      </c>
       <c r="F136" s="23"/>
       <c r="G136" s="23"/>
       <c r="H136" s="17"/>
@@ -20791,6 +21398,21 @@
       <c r="O136" s="22"/>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A137" s="15">
+        <v>42444</v>
+      </c>
+      <c r="B137">
+        <v>1.528</v>
+      </c>
+      <c r="C137">
+        <v>1.272826085401618</v>
+      </c>
+      <c r="D137">
+        <v>123.98913043478261</v>
+      </c>
+      <c r="E137">
+        <v>3.4381521688336911</v>
+      </c>
       <c r="F137" s="23"/>
       <c r="G137" s="23"/>
       <c r="H137" s="17"/>
@@ -20803,8 +21425,99 @@
       <c r="O137" s="22"/>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A138" s="15">
+        <v>42475</v>
+      </c>
+      <c r="B138">
+        <v>1.5509999999999999</v>
+      </c>
+      <c r="C138">
+        <v>1.4169047531627474</v>
+      </c>
+      <c r="D138">
+        <v>115.80952380952381</v>
+      </c>
+      <c r="E138">
+        <v>3.4765476158687045</v>
+      </c>
       <c r="F138" s="23"/>
       <c r="G138" s="23"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A139" s="15">
+        <v>42505</v>
+      </c>
+      <c r="B139">
+        <v>1.53</v>
+      </c>
+      <c r="C139">
+        <v>1.4661904602959042</v>
+      </c>
+      <c r="D139">
+        <v>132.0952380952381</v>
+      </c>
+      <c r="E139">
+        <v>3.607440488792601</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A140" s="15">
+        <v>42536</v>
+      </c>
+      <c r="B140">
+        <v>1.6419999999999999</v>
+      </c>
+      <c r="C140">
+        <v>1.5622727274894714</v>
+      </c>
+      <c r="D140">
+        <v>160.67045454545453</v>
+      </c>
+      <c r="E140">
+        <v>3.7821590792049062</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A141" s="15">
+        <v>42566</v>
+      </c>
+      <c r="B141">
+        <v>1.4119999999999999</v>
+      </c>
+      <c r="C141">
+        <v>1.4805000245571136</v>
+      </c>
+      <c r="D141">
+        <v>140.27500000000001</v>
+      </c>
+      <c r="E141">
+        <v>3.1680624932050705</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A142" s="15">
+        <v>42597</v>
+      </c>
+      <c r="B142">
+        <v>1.3879999999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A143" s="15">
+        <v>42628</v>
+      </c>
+      <c r="B143">
+        <v>1.552</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A144" s="15"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="15"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
